--- a/DogInfo.xlsx
+++ b/DogInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chroj\Desktop\Printing Certificates\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7D75E1-711E-49EC-A591-D4E5C5717768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE46ADD-F5DD-43C1-898E-D7EB390BA2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{280A6C33-D978-40DC-BE54-274BFDE06B19}"/>
+    <workbookView xWindow="-28920" yWindow="5970" windowWidth="29040" windowHeight="17520" xr2:uid="{280A6C33-D978-40DC-BE54-274BFDE06B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="4447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="4449">
   <si>
     <t>Registration Number</t>
   </si>
@@ -13377,6 +13377,12 @@
   </si>
   <si>
     <t>Amanda Plante</t>
+  </si>
+  <si>
+    <t>Chelsea Warman</t>
+  </si>
+  <si>
+    <t>Brennan Johansen</t>
   </si>
 </sst>
 </file>
@@ -13766,8 +13772,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -17299,7 +17305,7 @@
         <v>584</v>
       </c>
       <c r="C252" t="s">
-        <v>869</v>
+        <v>4447</v>
       </c>
       <c r="D252" t="s">
         <v>877</v>
@@ -17313,7 +17319,7 @@
         <v>879</v>
       </c>
       <c r="C253" t="s">
-        <v>869</v>
+        <v>4448</v>
       </c>
       <c r="D253" t="s">
         <v>880</v>

--- a/DogInfo.xlsx
+++ b/DogInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chroj\Desktop\Printing Certificates\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE46ADD-F5DD-43C1-898E-D7EB390BA2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF1CCB-F32C-4B01-8CD0-56DB8E7B63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5970" windowWidth="29040" windowHeight="17520" xr2:uid="{280A6C33-D978-40DC-BE54-274BFDE06B19}"/>
   </bookViews>
@@ -8723,9 +8723,6 @@
     <t>Luka</t>
   </si>
   <si>
-    <t>Attra Dea's A New Beginnings</t>
-  </si>
-  <si>
     <t>22-4169-02</t>
   </si>
   <si>
@@ -13383,6 +13380,9 @@
   </si>
   <si>
     <t>Brennan Johansen</t>
+  </si>
+  <si>
+    <t>Attra Dea's A New Beginning</t>
   </si>
 </sst>
 </file>
@@ -13772,8 +13772,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" topLeftCell="A842" workbookViewId="0">
+      <selection activeCell="D874" sqref="D874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -17305,7 +17305,7 @@
         <v>584</v>
       </c>
       <c r="C252" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="D252" t="s">
         <v>877</v>
@@ -17319,7 +17319,7 @@
         <v>879</v>
       </c>
       <c r="C253" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="D253" t="s">
         <v>880</v>
@@ -26002,256 +26002,256 @@
         <v>2891</v>
       </c>
       <c r="D873" t="s">
-        <v>2895</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A874" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B874" t="s">
         <v>2896</v>
       </c>
-      <c r="B874" t="s">
+      <c r="C874" t="s">
         <v>2897</v>
       </c>
-      <c r="C874" t="s">
+      <c r="D874" t="s">
         <v>2898</v>
-      </c>
-      <c r="D874" t="s">
-        <v>2899</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A875" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B875" t="s">
         <v>2900</v>
       </c>
-      <c r="B875" t="s">
+      <c r="C875" t="s">
         <v>2901</v>
       </c>
-      <c r="C875" t="s">
-        <v>2902</v>
-      </c>
       <c r="D875" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A876" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B876" t="s">
         <v>1522</v>
       </c>
       <c r="C876" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D876" t="s">
         <v>2904</v>
-      </c>
-      <c r="D876" t="s">
-        <v>2905</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A877" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B877" t="s">
         <v>2906</v>
       </c>
-      <c r="B877" t="s">
+      <c r="C877" t="s">
         <v>2907</v>
       </c>
-      <c r="C877" t="s">
+      <c r="D877" t="s">
         <v>2908</v>
-      </c>
-      <c r="D877" t="s">
-        <v>2909</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A878" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B878" t="s">
         <v>2910</v>
       </c>
-      <c r="B878" t="s">
+      <c r="C878" t="s">
         <v>2911</v>
       </c>
-      <c r="C878" t="s">
+      <c r="D878" t="s">
         <v>2912</v>
-      </c>
-      <c r="D878" t="s">
-        <v>2913</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A879" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B879" t="s">
         <v>2914</v>
       </c>
-      <c r="B879" t="s">
+      <c r="C879" t="s">
         <v>2915</v>
       </c>
-      <c r="C879" t="s">
+      <c r="D879" t="s">
         <v>2916</v>
-      </c>
-      <c r="D879" t="s">
-        <v>2917</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A880" s="1" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B880" t="s">
         <v>2264</v>
       </c>
       <c r="C880" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D880" t="s">
         <v>2919</v>
-      </c>
-      <c r="D880" t="s">
-        <v>2920</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A881" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B881" t="s">
         <v>2921</v>
       </c>
-      <c r="B881" t="s">
+      <c r="C881" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D881" t="s">
         <v>2922</v>
-      </c>
-      <c r="C881" t="s">
-        <v>2919</v>
-      </c>
-      <c r="D881" t="s">
-        <v>2923</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A882" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B882" t="s">
         <v>1675</v>
       </c>
       <c r="C882" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D882" t="s">
         <v>2925</v>
-      </c>
-      <c r="D882" t="s">
-        <v>2926</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A883" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B883" t="s">
         <v>700</v>
       </c>
       <c r="C883" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D883" t="s">
         <v>2928</v>
-      </c>
-      <c r="D883" t="s">
-        <v>2929</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A884" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B884" t="s">
         <v>2930</v>
       </c>
-      <c r="B884" t="s">
+      <c r="C884" t="s">
         <v>2931</v>
       </c>
-      <c r="C884" t="s">
+      <c r="D884" t="s">
         <v>2932</v>
-      </c>
-      <c r="D884" t="s">
-        <v>2933</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A885" s="1" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B885" t="s">
         <v>1566</v>
       </c>
       <c r="C885" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="D885" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A886" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B886" t="s">
         <v>2936</v>
       </c>
-      <c r="B886" t="s">
+      <c r="C886" t="s">
         <v>2937</v>
       </c>
-      <c r="C886" t="s">
-        <v>2938</v>
-      </c>
       <c r="D886" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A887" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B887" t="s">
         <v>2939</v>
       </c>
-      <c r="B887" t="s">
+      <c r="C887" t="s">
         <v>2940</v>
       </c>
-      <c r="C887" t="s">
+      <c r="D887" t="s">
         <v>2941</v>
-      </c>
-      <c r="D887" t="s">
-        <v>2942</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A888" s="1" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B888" t="s">
         <v>110</v>
       </c>
       <c r="C888" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="D888" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A889" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B889" t="s">
         <v>2945</v>
       </c>
-      <c r="B889" t="s">
+      <c r="C889" t="s">
         <v>2946</v>
       </c>
-      <c r="C889" t="s">
+      <c r="D889" t="s">
         <v>2947</v>
-      </c>
-      <c r="D889" t="s">
-        <v>2948</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A890" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B890" t="s">
         <v>2949</v>
       </c>
-      <c r="B890" t="s">
+      <c r="C890" t="s">
         <v>2950</v>
       </c>
-      <c r="C890" t="s">
+      <c r="D890" t="s">
         <v>2951</v>
-      </c>
-      <c r="D890" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A891" s="1" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B891" t="s">
         <v>1123</v>
       </c>
       <c r="C891" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="D891" t="s">
         <v>1123</v>
@@ -26259,13 +26259,13 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A892" s="1" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B892" t="s">
         <v>1016</v>
       </c>
       <c r="C892" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="D892" t="s">
         <v>1016</v>
@@ -26273,13 +26273,13 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A893" s="1" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B893" t="s">
         <v>1123</v>
       </c>
       <c r="C893" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="D893" t="s">
         <v>1123</v>
@@ -26287,97 +26287,97 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A894" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B894" t="s">
         <v>1472</v>
       </c>
       <c r="C894" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D894" t="s">
         <v>2959</v>
-      </c>
-      <c r="D894" t="s">
-        <v>2960</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A895" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B895" t="s">
         <v>1821</v>
       </c>
       <c r="C895" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="D895" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A896" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B896" t="s">
         <v>2963</v>
       </c>
-      <c r="B896" t="s">
+      <c r="C896" t="s">
         <v>2964</v>
       </c>
-      <c r="C896" t="s">
+      <c r="D896" t="s">
         <v>2965</v>
-      </c>
-      <c r="D896" t="s">
-        <v>2966</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A897" s="1" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B897" t="s">
         <v>416</v>
       </c>
       <c r="C897" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D897" t="s">
         <v>2968</v>
-      </c>
-      <c r="D897" t="s">
-        <v>2969</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A898" s="1" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B898" t="s">
         <v>1085</v>
       </c>
       <c r="C898" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D898" t="s">
         <v>2971</v>
-      </c>
-      <c r="D898" t="s">
-        <v>2972</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A899" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B899" t="s">
         <v>2973</v>
       </c>
-      <c r="B899" t="s">
+      <c r="C899" t="s">
         <v>2974</v>
       </c>
-      <c r="C899" t="s">
+      <c r="D899" t="s">
         <v>2975</v>
-      </c>
-      <c r="D899" t="s">
-        <v>2976</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A900" s="1" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B900" t="s">
         <v>1920</v>
       </c>
       <c r="C900" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D900" t="s">
         <v>1920</v>
@@ -26385,97 +26385,97 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A901" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B901" t="s">
         <v>2979</v>
       </c>
-      <c r="B901" t="s">
-        <v>2980</v>
-      </c>
       <c r="C901" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D901" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A902" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B902" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C902" t="s">
         <v>2981</v>
       </c>
-      <c r="B902" t="s">
-        <v>2907</v>
-      </c>
-      <c r="C902" t="s">
+      <c r="D902" t="s">
         <v>2982</v>
-      </c>
-      <c r="D902" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A903" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B903" t="s">
         <v>2984</v>
       </c>
-      <c r="B903" t="s">
+      <c r="C903" t="s">
         <v>2985</v>
       </c>
-      <c r="C903" t="s">
+      <c r="D903" t="s">
         <v>2986</v>
-      </c>
-      <c r="D903" t="s">
-        <v>2987</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A904" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B904" t="s">
         <v>682</v>
       </c>
       <c r="C904" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D904" t="s">
         <v>2989</v>
-      </c>
-      <c r="D904" t="s">
-        <v>2990</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A905" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B905" t="s">
         <v>1107</v>
       </c>
       <c r="C905" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="D905" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A906" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B906" t="s">
         <v>2993</v>
       </c>
-      <c r="B906" t="s">
+      <c r="C906" t="s">
         <v>2994</v>
       </c>
-      <c r="C906" t="s">
+      <c r="D906" t="s">
         <v>2995</v>
-      </c>
-      <c r="D906" t="s">
-        <v>2996</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A907" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B907" t="s">
         <v>1764</v>
       </c>
       <c r="C907" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="D907" t="s">
         <v>1764</v>
@@ -26483,321 +26483,321 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A908" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B908" t="s">
         <v>2999</v>
       </c>
-      <c r="B908" t="s">
+      <c r="C908" t="s">
         <v>3000</v>
       </c>
-      <c r="C908" t="s">
+      <c r="D908" t="s">
         <v>3001</v>
-      </c>
-      <c r="D908" t="s">
-        <v>3002</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A909" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B909" t="s">
         <v>3003</v>
       </c>
-      <c r="B909" t="s">
+      <c r="C909" t="s">
         <v>3004</v>
       </c>
-      <c r="C909" t="s">
-        <v>3005</v>
-      </c>
       <c r="D909" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A910" s="1" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B910" t="s">
         <v>766</v>
       </c>
       <c r="C910" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D910" t="s">
         <v>3007</v>
-      </c>
-      <c r="D910" t="s">
-        <v>3008</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A911" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B911" t="s">
         <v>2331</v>
       </c>
       <c r="C911" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D911" t="s">
         <v>3010</v>
-      </c>
-      <c r="D911" t="s">
-        <v>3011</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A912" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B912" t="s">
         <v>3012</v>
       </c>
-      <c r="B912" t="s">
+      <c r="C912" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D912" t="s">
         <v>3013</v>
-      </c>
-      <c r="C912" t="s">
-        <v>3010</v>
-      </c>
-      <c r="D912" t="s">
-        <v>3014</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A913" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B913" t="s">
         <v>3015</v>
       </c>
-      <c r="B913" t="s">
+      <c r="C913" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D913" t="s">
         <v>3016</v>
-      </c>
-      <c r="C913" t="s">
-        <v>3010</v>
-      </c>
-      <c r="D913" t="s">
-        <v>3017</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A914" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B914" t="s">
         <v>3018</v>
       </c>
-      <c r="B914" t="s">
+      <c r="C914" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D914" t="s">
         <v>3019</v>
-      </c>
-      <c r="C914" t="s">
-        <v>3010</v>
-      </c>
-      <c r="D914" t="s">
-        <v>3020</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A915" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B915" t="s">
         <v>3021</v>
       </c>
-      <c r="B915" t="s">
+      <c r="C915" t="s">
         <v>3022</v>
       </c>
-      <c r="C915" t="s">
+      <c r="D915" t="s">
         <v>3023</v>
-      </c>
-      <c r="D915" t="s">
-        <v>3024</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A916" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B916" t="s">
         <v>3025</v>
       </c>
-      <c r="B916" t="s">
+      <c r="C916" t="s">
         <v>3026</v>
       </c>
-      <c r="C916" t="s">
-        <v>3027</v>
-      </c>
       <c r="D916" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A917" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B917" t="s">
         <v>3028</v>
       </c>
-      <c r="B917" t="s">
+      <c r="C917" t="s">
         <v>3029</v>
       </c>
-      <c r="C917" t="s">
+      <c r="D917" t="s">
         <v>3030</v>
-      </c>
-      <c r="D917" t="s">
-        <v>3031</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A918" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B918" t="s">
         <v>3032</v>
       </c>
-      <c r="B918" t="s">
+      <c r="C918" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D918" t="s">
         <v>3033</v>
-      </c>
-      <c r="C918" t="s">
-        <v>3030</v>
-      </c>
-      <c r="D918" t="s">
-        <v>3034</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A919" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B919" t="s">
         <v>3035</v>
       </c>
-      <c r="B919" t="s">
+      <c r="C919" t="s">
         <v>3036</v>
       </c>
-      <c r="C919" t="s">
-        <v>3037</v>
-      </c>
       <c r="D919" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A920" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B920" t="s">
         <v>3038</v>
       </c>
-      <c r="B920" t="s">
+      <c r="C920" t="s">
         <v>3039</v>
       </c>
-      <c r="C920" t="s">
+      <c r="D920" t="s">
         <v>3040</v>
-      </c>
-      <c r="D920" t="s">
-        <v>3041</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A921" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B921" t="s">
         <v>3042</v>
       </c>
-      <c r="B921" t="s">
-        <v>3043</v>
-      </c>
       <c r="C921" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="D921" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A922" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B922" t="s">
         <v>3044</v>
       </c>
-      <c r="B922" t="s">
+      <c r="C922" t="s">
         <v>3045</v>
       </c>
-      <c r="C922" t="s">
+      <c r="D922" t="s">
         <v>3046</v>
-      </c>
-      <c r="D922" t="s">
-        <v>3047</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A923" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B923" t="s">
         <v>3048</v>
       </c>
-      <c r="B923" t="s">
+      <c r="C923" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D923" t="s">
         <v>3049</v>
-      </c>
-      <c r="C923" t="s">
-        <v>3046</v>
-      </c>
-      <c r="D923" t="s">
-        <v>3050</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A924" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B924" t="s">
         <v>3051</v>
       </c>
-      <c r="B924" t="s">
+      <c r="C924" t="s">
         <v>3052</v>
       </c>
-      <c r="C924" t="s">
+      <c r="D924" t="s">
         <v>3053</v>
-      </c>
-      <c r="D924" t="s">
-        <v>3054</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A925" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B925" t="s">
         <v>3055</v>
       </c>
-      <c r="B925" t="s">
+      <c r="C925" t="s">
         <v>3056</v>
       </c>
-      <c r="C925" t="s">
-        <v>3057</v>
-      </c>
       <c r="D925" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A926" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B926" t="s">
         <v>3058</v>
       </c>
-      <c r="B926" t="s">
+      <c r="C926" t="s">
         <v>3059</v>
       </c>
-      <c r="C926" t="s">
+      <c r="D926" t="s">
         <v>3060</v>
-      </c>
-      <c r="D926" t="s">
-        <v>3061</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A927" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B927" t="s">
         <v>3062</v>
       </c>
-      <c r="B927" t="s">
+      <c r="C927" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D927" t="s">
         <v>3063</v>
-      </c>
-      <c r="C927" t="s">
-        <v>3060</v>
-      </c>
-      <c r="D927" t="s">
-        <v>3064</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A928" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B928" t="s">
         <v>3065</v>
       </c>
-      <c r="B928" t="s">
+      <c r="C928" t="s">
         <v>3066</v>
       </c>
-      <c r="C928" t="s">
-        <v>3067</v>
-      </c>
       <c r="D928" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A929" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B929" t="s">
         <v>3068</v>
       </c>
-      <c r="B929" t="s">
-        <v>3069</v>
-      </c>
       <c r="C929" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D929" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A930" s="1" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="B930" t="s">
         <v>80</v>
       </c>
       <c r="C930" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D930" t="s">
         <v>80</v>
@@ -26805,41 +26805,41 @@
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A931" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B931" t="s">
         <v>3071</v>
       </c>
-      <c r="B931" t="s">
+      <c r="C931" t="s">
         <v>3072</v>
       </c>
-      <c r="C931" t="s">
+      <c r="D931" t="s">
         <v>3073</v>
-      </c>
-      <c r="D931" t="s">
-        <v>3074</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A932" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B932" t="s">
         <v>3075</v>
       </c>
-      <c r="B932" t="s">
+      <c r="C932" t="s">
         <v>3076</v>
       </c>
-      <c r="C932" t="s">
+      <c r="D932" t="s">
         <v>3077</v>
-      </c>
-      <c r="D932" t="s">
-        <v>3078</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A933" s="1" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B933" t="s">
         <v>720</v>
       </c>
       <c r="C933" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D933" t="s">
         <v>720</v>
@@ -26847,433 +26847,433 @@
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A934" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B934" t="s">
         <v>3081</v>
       </c>
-      <c r="B934" t="s">
+      <c r="C934" t="s">
         <v>3082</v>
       </c>
-      <c r="C934" t="s">
+      <c r="D934" t="s">
         <v>3083</v>
-      </c>
-      <c r="D934" t="s">
-        <v>3084</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A935" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B935" t="s">
         <v>3085</v>
       </c>
-      <c r="B935" t="s">
+      <c r="C935" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D935" t="s">
         <v>3086</v>
-      </c>
-      <c r="C935" t="s">
-        <v>3083</v>
-      </c>
-      <c r="D935" t="s">
-        <v>3087</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A936" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B936" t="s">
         <v>3088</v>
       </c>
-      <c r="B936" t="s">
+      <c r="C936" t="s">
         <v>3089</v>
       </c>
-      <c r="C936" t="s">
+      <c r="D936" t="s">
         <v>3090</v>
-      </c>
-      <c r="D936" t="s">
-        <v>3091</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A937" s="1" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="B937" t="s">
         <v>1217</v>
       </c>
       <c r="C937" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="D937" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A938" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B938" t="s">
         <v>3094</v>
       </c>
-      <c r="B938" t="s">
+      <c r="C938" t="s">
         <v>3095</v>
       </c>
-      <c r="C938" t="s">
-        <v>3096</v>
-      </c>
       <c r="D938" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A939" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B939" t="s">
         <v>3097</v>
       </c>
-      <c r="B939" t="s">
+      <c r="C939" t="s">
         <v>3098</v>
       </c>
-      <c r="C939" t="s">
-        <v>3099</v>
-      </c>
       <c r="D939" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A940" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B940" t="s">
         <v>3100</v>
       </c>
-      <c r="B940" t="s">
+      <c r="C940" t="s">
         <v>3101</v>
       </c>
-      <c r="C940" t="s">
+      <c r="D940" t="s">
         <v>3102</v>
-      </c>
-      <c r="D940" t="s">
-        <v>3103</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A941" s="1" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B941" t="s">
         <v>2338</v>
       </c>
       <c r="C941" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D941" t="s">
         <v>3105</v>
-      </c>
-      <c r="D941" t="s">
-        <v>3106</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A942" s="1" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="B942" t="s">
         <v>1618</v>
       </c>
       <c r="C942" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D942" t="s">
         <v>3108</v>
-      </c>
-      <c r="D942" t="s">
-        <v>3109</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A943" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B943" t="s">
         <v>3110</v>
       </c>
-      <c r="B943" t="s">
+      <c r="C943" t="s">
         <v>3111</v>
       </c>
-      <c r="C943" t="s">
+      <c r="D943" t="s">
         <v>3112</v>
-      </c>
-      <c r="D943" t="s">
-        <v>3113</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A944" s="1" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B944" t="s">
         <v>1326</v>
       </c>
       <c r="C944" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D944" t="s">
         <v>3115</v>
-      </c>
-      <c r="D944" t="s">
-        <v>3116</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A945" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B945" t="s">
         <v>3117</v>
       </c>
-      <c r="B945" t="s">
+      <c r="C945" t="s">
         <v>3118</v>
       </c>
-      <c r="C945" t="s">
+      <c r="D945" t="s">
         <v>3119</v>
-      </c>
-      <c r="D945" t="s">
-        <v>3120</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A946" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B946" t="s">
         <v>3121</v>
       </c>
-      <c r="B946" t="s">
+      <c r="C946" t="s">
         <v>3122</v>
       </c>
-      <c r="C946" t="s">
+      <c r="D946" t="s">
         <v>3123</v>
-      </c>
-      <c r="D946" t="s">
-        <v>3124</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A947" s="1" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B947" t="s">
         <v>1044</v>
       </c>
       <c r="C947" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D947" t="s">
         <v>3126</v>
-      </c>
-      <c r="D947" t="s">
-        <v>3127</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A948" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B948" t="s">
         <v>3128</v>
       </c>
-      <c r="B948" t="s">
+      <c r="C948" t="s">
         <v>3129</v>
       </c>
-      <c r="C948" t="s">
-        <v>3130</v>
-      </c>
       <c r="D948" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A949" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B949" t="s">
         <v>3131</v>
       </c>
-      <c r="B949" t="s">
-        <v>3132</v>
-      </c>
       <c r="C949" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="D949" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A950" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B950" t="s">
         <v>3133</v>
       </c>
-      <c r="B950" t="s">
+      <c r="C950" t="s">
         <v>3134</v>
       </c>
-      <c r="C950" t="s">
+      <c r="D950" t="s">
         <v>3135</v>
-      </c>
-      <c r="D950" t="s">
-        <v>3136</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A951" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B951" t="s">
         <v>3137</v>
       </c>
-      <c r="B951" t="s">
+      <c r="C951" t="s">
         <v>3138</v>
       </c>
-      <c r="C951" t="s">
+      <c r="D951" t="s">
         <v>3139</v>
-      </c>
-      <c r="D951" t="s">
-        <v>3140</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A952" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B952" t="s">
         <v>3141</v>
       </c>
-      <c r="B952" t="s">
+      <c r="C952" t="s">
         <v>3142</v>
       </c>
-      <c r="C952" t="s">
+      <c r="D952" t="s">
         <v>3143</v>
-      </c>
-      <c r="D952" t="s">
-        <v>3144</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A953" s="1" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="B953" t="s">
         <v>2047</v>
       </c>
       <c r="C953" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="D953" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A954" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B954" t="s">
         <v>3147</v>
       </c>
-      <c r="B954" t="s">
+      <c r="C954" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D954" t="s">
         <v>3148</v>
-      </c>
-      <c r="C954" t="s">
-        <v>3143</v>
-      </c>
-      <c r="D954" t="s">
-        <v>3149</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A955" s="1" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="B955" t="s">
         <v>2047</v>
       </c>
       <c r="C955" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D955" t="s">
         <v>3151</v>
-      </c>
-      <c r="D955" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A956" s="1" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B956" t="s">
         <v>693</v>
       </c>
       <c r="C956" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D956" t="s">
         <v>3154</v>
-      </c>
-      <c r="D956" t="s">
-        <v>3155</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A957" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B957" t="s">
         <v>3156</v>
       </c>
-      <c r="B957" t="s">
+      <c r="C957" t="s">
         <v>3157</v>
       </c>
-      <c r="C957" t="s">
-        <v>3158</v>
-      </c>
       <c r="D957" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A958" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B958" t="s">
         <v>3159</v>
       </c>
-      <c r="B958" t="s">
+      <c r="C958" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D958" t="s">
         <v>3160</v>
-      </c>
-      <c r="C958" t="s">
-        <v>3158</v>
-      </c>
-      <c r="D958" t="s">
-        <v>3161</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A959" s="1" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="B959" t="s">
         <v>2203</v>
       </c>
       <c r="C959" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D959" t="s">
         <v>3163</v>
-      </c>
-      <c r="D959" t="s">
-        <v>3164</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A960" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B960" t="s">
         <v>3165</v>
       </c>
-      <c r="B960" t="s">
-        <v>3166</v>
-      </c>
       <c r="C960" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="D960" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A961" s="1" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="B961" t="s">
         <v>2683</v>
       </c>
       <c r="C961" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D961" t="s">
         <v>3168</v>
-      </c>
-      <c r="D961" t="s">
-        <v>3169</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A962" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B962" t="s">
         <v>3170</v>
       </c>
-      <c r="B962" t="s">
+      <c r="C962" t="s">
         <v>3171</v>
       </c>
-      <c r="C962" t="s">
-        <v>3172</v>
-      </c>
       <c r="D962" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A963" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B963" t="s">
         <v>3173</v>
       </c>
-      <c r="B963" t="s">
+      <c r="C963" t="s">
         <v>3174</v>
       </c>
-      <c r="C963" t="s">
-        <v>3175</v>
-      </c>
       <c r="D963" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A964" s="1" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="B964" t="s">
         <v>2303</v>
       </c>
       <c r="C964" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="D964" t="s">
         <v>2303</v>
@@ -27281,83 +27281,83 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A965" s="1" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="B965" t="s">
         <v>1496</v>
       </c>
       <c r="C965" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D965" t="s">
         <v>3178</v>
-      </c>
-      <c r="D965" t="s">
-        <v>3179</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A966" s="1" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B966" t="s">
         <v>3180</v>
       </c>
-      <c r="B966" t="s">
+      <c r="C966" t="s">
         <v>3181</v>
       </c>
-      <c r="C966" t="s">
+      <c r="D966" t="s">
         <v>3182</v>
-      </c>
-      <c r="D966" t="s">
-        <v>3183</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A967" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B967" t="s">
         <v>3184</v>
       </c>
-      <c r="B967" t="s">
+      <c r="C967" t="s">
         <v>3185</v>
       </c>
-      <c r="C967" t="s">
+      <c r="D967" t="s">
         <v>3186</v>
-      </c>
-      <c r="D967" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A968" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B968" t="s">
         <v>3188</v>
       </c>
-      <c r="B968" t="s">
+      <c r="C968" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D968" t="s">
         <v>3189</v>
-      </c>
-      <c r="C968" t="s">
-        <v>3186</v>
-      </c>
-      <c r="D968" t="s">
-        <v>3190</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A969" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B969" t="s">
         <v>3191</v>
       </c>
-      <c r="B969" t="s">
+      <c r="C969" t="s">
         <v>3192</v>
       </c>
-      <c r="C969" t="s">
+      <c r="D969" t="s">
         <v>3193</v>
-      </c>
-      <c r="D969" t="s">
-        <v>3194</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A970" s="1" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="B970" t="s">
         <v>318</v>
       </c>
       <c r="C970" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="D970" t="s">
         <v>318</v>
@@ -27365,125 +27365,125 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A971" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B971" t="s">
         <v>3197</v>
       </c>
-      <c r="B971" t="s">
+      <c r="C971" t="s">
         <v>3198</v>
       </c>
-      <c r="C971" t="s">
+      <c r="D971" t="s">
         <v>3199</v>
-      </c>
-      <c r="D971" t="s">
-        <v>3200</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A972" s="1" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="B972" t="s">
         <v>1920</v>
       </c>
       <c r="C972" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="D972" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A973" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B973" t="s">
         <v>3203</v>
       </c>
-      <c r="B973" t="s">
+      <c r="C973" t="s">
         <v>3204</v>
       </c>
-      <c r="C973" t="s">
-        <v>3205</v>
-      </c>
       <c r="D973" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A974" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B974" t="s">
         <v>3206</v>
       </c>
-      <c r="B974" t="s">
+      <c r="C974" t="s">
         <v>3207</v>
       </c>
-      <c r="C974" t="s">
+      <c r="D974" t="s">
         <v>3208</v>
-      </c>
-      <c r="D974" t="s">
-        <v>3209</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A975" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B975" t="s">
         <v>3210</v>
       </c>
-      <c r="B975" t="s">
+      <c r="C975" t="s">
         <v>3211</v>
       </c>
-      <c r="C975" t="s">
-        <v>3212</v>
-      </c>
       <c r="D975" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A976" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B976" t="s">
         <v>3213</v>
       </c>
-      <c r="B976" t="s">
+      <c r="C976" t="s">
         <v>3214</v>
       </c>
-      <c r="C976" t="s">
+      <c r="D976" t="s">
         <v>3215</v>
-      </c>
-      <c r="D976" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A977" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B977" t="s">
         <v>3217</v>
       </c>
-      <c r="B977" t="s">
+      <c r="C977" t="s">
         <v>3218</v>
       </c>
-      <c r="C977" t="s">
-        <v>3219</v>
-      </c>
       <c r="D977" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A978" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B978" t="s">
         <v>3220</v>
       </c>
-      <c r="B978" t="s">
+      <c r="C978" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D978" t="s">
         <v>3221</v>
-      </c>
-      <c r="C978" t="s">
-        <v>3219</v>
-      </c>
-      <c r="D978" t="s">
-        <v>3222</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A979" s="1" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B979" t="s">
         <v>220</v>
       </c>
       <c r="C979" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="D979" t="s">
         <v>220</v>
@@ -27491,111 +27491,111 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A980" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B980" t="s">
         <v>3225</v>
       </c>
-      <c r="B980" t="s">
+      <c r="C980" t="s">
         <v>3226</v>
       </c>
-      <c r="C980" t="s">
+      <c r="D980" t="s">
         <v>3227</v>
-      </c>
-      <c r="D980" t="s">
-        <v>3228</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A981" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B981" t="s">
         <v>3229</v>
       </c>
-      <c r="B981" t="s">
+      <c r="C981" t="s">
         <v>3230</v>
       </c>
-      <c r="C981" t="s">
+      <c r="D981" t="s">
         <v>3231</v>
-      </c>
-      <c r="D981" t="s">
-        <v>3232</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A982" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B982" t="s">
         <v>3233</v>
       </c>
-      <c r="B982" t="s">
+      <c r="C982" t="s">
         <v>3234</v>
       </c>
-      <c r="C982" t="s">
+      <c r="D982" t="s">
         <v>3235</v>
-      </c>
-      <c r="D982" t="s">
-        <v>3236</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A983" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B983" t="s">
         <v>3237</v>
       </c>
-      <c r="B983" t="s">
+      <c r="C983" t="s">
         <v>3238</v>
       </c>
-      <c r="C983" t="s">
-        <v>3239</v>
-      </c>
       <c r="D983" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A984" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B984" t="s">
         <v>3240</v>
       </c>
-      <c r="B984" t="s">
+      <c r="C984" t="s">
         <v>3241</v>
       </c>
-      <c r="C984" t="s">
+      <c r="D984" t="s">
         <v>3242</v>
-      </c>
-      <c r="D984" t="s">
-        <v>3243</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A985" s="1" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B985" t="s">
         <v>2380</v>
       </c>
       <c r="C985" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D985" t="s">
         <v>3245</v>
-      </c>
-      <c r="D985" t="s">
-        <v>3246</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A986" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B986" t="s">
         <v>3247</v>
       </c>
-      <c r="B986" t="s">
+      <c r="C986" t="s">
         <v>3248</v>
       </c>
-      <c r="C986" t="s">
+      <c r="D986" t="s">
         <v>3249</v>
-      </c>
-      <c r="D986" t="s">
-        <v>3250</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A987" s="1" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B987" t="s">
         <v>2338</v>
       </c>
       <c r="C987" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="D987" t="s">
         <v>2338</v>
@@ -27603,27 +27603,27 @@
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A988" s="1" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B988" t="s">
         <v>2053</v>
       </c>
       <c r="C988" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D988" t="s">
         <v>3254</v>
-      </c>
-      <c r="D988" t="s">
-        <v>3255</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A989" s="1" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B989" t="s">
         <v>1504</v>
       </c>
       <c r="C989" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="D989" t="s">
         <v>1504</v>
@@ -27631,69 +27631,69 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A990" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B990" t="s">
         <v>3258</v>
       </c>
-      <c r="B990" t="s">
+      <c r="C990" t="s">
         <v>3259</v>
       </c>
-      <c r="C990" t="s">
+      <c r="D990" t="s">
         <v>3260</v>
-      </c>
-      <c r="D990" t="s">
-        <v>3261</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A991" s="1" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="B991" t="s">
         <v>1472</v>
       </c>
       <c r="C991" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D991" t="s">
         <v>3263</v>
-      </c>
-      <c r="D991" t="s">
-        <v>3264</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A992" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B992" t="s">
         <v>3265</v>
       </c>
-      <c r="B992" t="s">
+      <c r="C992" t="s">
         <v>3266</v>
       </c>
-      <c r="C992" t="s">
+      <c r="D992" t="s">
         <v>3267</v>
-      </c>
-      <c r="D992" t="s">
-        <v>3268</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A993" s="1" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B993" t="s">
         <v>1016</v>
       </c>
       <c r="C993" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D993" t="s">
         <v>3270</v>
-      </c>
-      <c r="D993" t="s">
-        <v>3271</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A994" s="1" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B994" t="s">
         <v>1020</v>
       </c>
       <c r="C994" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="D994" t="s">
         <v>1020</v>
@@ -27701,97 +27701,97 @@
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A995" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B995" t="s">
         <v>3274</v>
       </c>
-      <c r="B995" t="s">
+      <c r="C995" t="s">
         <v>3275</v>
       </c>
-      <c r="C995" t="s">
+      <c r="D995" t="s">
         <v>3276</v>
-      </c>
-      <c r="D995" t="s">
-        <v>3277</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A996" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B996" t="s">
         <v>3278</v>
       </c>
-      <c r="B996" t="s">
+      <c r="C996" t="s">
         <v>3279</v>
       </c>
-      <c r="C996" t="s">
+      <c r="D996" t="s">
         <v>3280</v>
-      </c>
-      <c r="D996" t="s">
-        <v>3281</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A997" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B997" t="s">
         <v>3282</v>
       </c>
-      <c r="B997" t="s">
+      <c r="C997" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D997" t="s">
         <v>3283</v>
-      </c>
-      <c r="C997" t="s">
-        <v>3280</v>
-      </c>
-      <c r="D997" t="s">
-        <v>3284</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A998" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B998" t="s">
         <v>3285</v>
       </c>
-      <c r="B998" t="s">
+      <c r="C998" t="s">
         <v>3286</v>
       </c>
-      <c r="C998" t="s">
-        <v>3287</v>
-      </c>
       <c r="D998" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A999" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B999" t="s">
         <v>3288</v>
       </c>
-      <c r="B999" t="s">
-        <v>3289</v>
-      </c>
       <c r="C999" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D999" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1000" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B1000" t="s">
         <v>3290</v>
       </c>
-      <c r="B1000" t="s">
+      <c r="C1000" t="s">
         <v>3291</v>
       </c>
-      <c r="C1000" t="s">
+      <c r="D1000" t="s">
         <v>3292</v>
-      </c>
-      <c r="D1000" t="s">
-        <v>3293</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1001" s="1" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B1001" t="s">
         <v>1920</v>
       </c>
       <c r="C1001" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="D1001" t="s">
         <v>1920</v>
@@ -27799,321 +27799,321 @@
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1002" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B1002" t="s">
         <v>3296</v>
       </c>
-      <c r="B1002" t="s">
+      <c r="C1002" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1002" t="s">
         <v>3297</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>3295</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>3298</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1003" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B1003" t="s">
         <v>3299</v>
       </c>
-      <c r="B1003" t="s">
+      <c r="C1003" t="s">
         <v>3300</v>
       </c>
-      <c r="C1003" t="s">
+      <c r="D1003" t="s">
         <v>3301</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>3302</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1004" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B1004" t="s">
         <v>3303</v>
       </c>
-      <c r="B1004" t="s">
+      <c r="C1004" t="s">
         <v>3304</v>
       </c>
-      <c r="C1004" t="s">
-        <v>3305</v>
-      </c>
       <c r="D1004" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1005" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1005" t="s">
         <v>3306</v>
       </c>
-      <c r="B1005" t="s">
-        <v>3307</v>
-      </c>
       <c r="C1005" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D1005" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1006" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B1006" t="s">
         <v>3308</v>
       </c>
-      <c r="B1006" t="s">
+      <c r="C1006" t="s">
         <v>3309</v>
       </c>
-      <c r="C1006" t="s">
-        <v>3310</v>
-      </c>
       <c r="D1006" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1007" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B1007" t="s">
         <v>3311</v>
       </c>
-      <c r="B1007" t="s">
+      <c r="C1007" t="s">
         <v>3312</v>
       </c>
-      <c r="C1007" t="s">
-        <v>3313</v>
-      </c>
       <c r="D1007" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1008" s="1" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B1008" t="s">
         <v>1522</v>
       </c>
       <c r="C1008" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D1008" t="s">
         <v>3315</v>
-      </c>
-      <c r="D1008" t="s">
-        <v>3316</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1009" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B1009" t="s">
         <v>3317</v>
       </c>
-      <c r="B1009" t="s">
+      <c r="C1009" t="s">
         <v>3318</v>
       </c>
-      <c r="C1009" t="s">
-        <v>3319</v>
-      </c>
       <c r="D1009" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1010" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B1010" t="s">
         <v>3320</v>
       </c>
-      <c r="B1010" t="s">
+      <c r="C1010" t="s">
         <v>3321</v>
       </c>
-      <c r="C1010" t="s">
+      <c r="D1010" t="s">
         <v>3322</v>
-      </c>
-      <c r="D1010" t="s">
-        <v>3323</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1011" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B1011" t="s">
         <v>3324</v>
       </c>
-      <c r="B1011" t="s">
+      <c r="C1011" t="s">
         <v>3325</v>
       </c>
-      <c r="C1011" t="s">
-        <v>3326</v>
-      </c>
       <c r="D1011" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1012" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1012" t="s">
         <v>3327</v>
       </c>
-      <c r="B1012" t="s">
+      <c r="C1012" t="s">
         <v>3328</v>
       </c>
-      <c r="C1012" t="s">
-        <v>3329</v>
-      </c>
       <c r="D1012" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1013" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1013" t="s">
         <v>3330</v>
       </c>
-      <c r="B1013" t="s">
+      <c r="C1013" t="s">
         <v>3331</v>
       </c>
-      <c r="C1013" t="s">
+      <c r="D1013" t="s">
         <v>3332</v>
-      </c>
-      <c r="D1013" t="s">
-        <v>3333</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1014" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1014" t="s">
         <v>3334</v>
       </c>
-      <c r="B1014" t="s">
+      <c r="C1014" t="s">
         <v>3335</v>
       </c>
-      <c r="C1014" t="s">
+      <c r="D1014" t="s">
         <v>3336</v>
-      </c>
-      <c r="D1014" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1015" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1015" t="s">
         <v>1023</v>
       </c>
       <c r="C1015" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D1015" t="s">
         <v>3339</v>
-      </c>
-      <c r="D1015" t="s">
-        <v>3340</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1016" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1016" t="s">
         <v>3341</v>
       </c>
-      <c r="B1016" t="s">
+      <c r="C1016" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D1016" t="s">
         <v>3342</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>3339</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>3343</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1017" s="1" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B1017" t="s">
         <v>2207</v>
       </c>
       <c r="C1017" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D1017" t="s">
         <v>3345</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>3346</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1018" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1018" t="s">
         <v>3347</v>
       </c>
-      <c r="B1018" t="s">
+      <c r="C1018" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D1018" t="s">
         <v>3348</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>3345</v>
-      </c>
-      <c r="D1018" t="s">
-        <v>3349</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1019" s="1" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="B1019" t="s">
         <v>1675</v>
       </c>
       <c r="C1019" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="D1019" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1020" s="1" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B1020" t="s">
         <v>1016</v>
       </c>
       <c r="C1020" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D1020" t="s">
         <v>3353</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>3354</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1021" s="1" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B1021" t="s">
         <v>1650</v>
       </c>
       <c r="C1021" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D1021" t="s">
         <v>3356</v>
-      </c>
-      <c r="D1021" t="s">
-        <v>3357</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1022" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1022" t="s">
         <v>3358</v>
       </c>
-      <c r="B1022" t="s">
+      <c r="C1022" t="s">
         <v>3359</v>
       </c>
-      <c r="C1022" t="s">
+      <c r="D1022" t="s">
         <v>3360</v>
-      </c>
-      <c r="D1022" t="s">
-        <v>3361</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1023" s="1" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="B1023" t="s">
         <v>817</v>
       </c>
       <c r="C1023" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D1023" t="s">
         <v>3363</v>
-      </c>
-      <c r="D1023" t="s">
-        <v>3364</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1024" s="1" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="B1024" t="s">
         <v>716</v>
       </c>
       <c r="C1024" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D1024" t="s">
         <v>716</v>
@@ -28121,41 +28121,41 @@
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1025" s="1" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B1025" t="s">
         <v>1518</v>
       </c>
       <c r="C1025" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D1025" t="s">
         <v>3368</v>
-      </c>
-      <c r="D1025" t="s">
-        <v>3369</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1026" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B1026" t="s">
         <v>3370</v>
       </c>
-      <c r="B1026" t="s">
+      <c r="C1026" t="s">
         <v>3371</v>
       </c>
-      <c r="C1026" t="s">
+      <c r="D1026" t="s">
         <v>3372</v>
-      </c>
-      <c r="D1026" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1027" s="1" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B1027" t="s">
         <v>502</v>
       </c>
       <c r="C1027" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="D1027" t="s">
         <v>502</v>
@@ -28163,41 +28163,41 @@
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1028" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1028" t="s">
         <v>3376</v>
       </c>
-      <c r="B1028" t="s">
+      <c r="C1028" t="s">
         <v>3377</v>
       </c>
-      <c r="C1028" t="s">
+      <c r="D1028" t="s">
         <v>3378</v>
-      </c>
-      <c r="D1028" t="s">
-        <v>3379</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1029" s="1" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="B1029" t="s">
         <v>1675</v>
       </c>
       <c r="C1029" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D1029" t="s">
         <v>3381</v>
-      </c>
-      <c r="D1029" t="s">
-        <v>3382</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1030" s="1" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="B1030" t="s">
         <v>929</v>
       </c>
       <c r="C1030" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="D1030" t="s">
         <v>929</v>
@@ -28205,83 +28205,83 @@
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1031" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B1031" t="s">
         <v>3385</v>
       </c>
-      <c r="B1031" t="s">
-        <v>3386</v>
-      </c>
       <c r="C1031" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="D1031" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1032" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1032" t="s">
         <v>3387</v>
       </c>
-      <c r="B1032" t="s">
+      <c r="C1032" t="s">
         <v>3388</v>
       </c>
-      <c r="C1032" t="s">
+      <c r="D1032" t="s">
         <v>3389</v>
-      </c>
-      <c r="D1032" t="s">
-        <v>3390</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1033" s="1" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B1033" t="s">
         <v>861</v>
       </c>
       <c r="C1033" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D1033" t="s">
         <v>3392</v>
-      </c>
-      <c r="D1033" t="s">
-        <v>3393</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1034" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B1034" t="s">
         <v>3394</v>
       </c>
-      <c r="B1034" t="s">
+      <c r="C1034" t="s">
         <v>3395</v>
       </c>
-      <c r="C1034" t="s">
-        <v>3396</v>
-      </c>
       <c r="D1034" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1035" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B1035" t="s">
         <v>3397</v>
       </c>
-      <c r="B1035" t="s">
+      <c r="C1035" t="s">
         <v>3398</v>
       </c>
-      <c r="C1035" t="s">
+      <c r="D1035" t="s">
         <v>3399</v>
-      </c>
-      <c r="D1035" t="s">
-        <v>3400</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1036" s="1" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B1036" t="s">
         <v>1052</v>
       </c>
       <c r="C1036" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="D1036" t="s">
         <v>1052</v>
@@ -28289,69 +28289,69 @@
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1037" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1037" t="s">
         <v>3403</v>
       </c>
-      <c r="B1037" t="s">
+      <c r="C1037" t="s">
         <v>3404</v>
       </c>
-      <c r="C1037" t="s">
-        <v>3405</v>
-      </c>
       <c r="D1037" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1038" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B1038" t="s">
         <v>3406</v>
       </c>
-      <c r="B1038" t="s">
+      <c r="C1038" t="s">
         <v>3407</v>
       </c>
-      <c r="C1038" t="s">
-        <v>3408</v>
-      </c>
       <c r="D1038" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1039" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B1039" t="s">
         <v>3409</v>
       </c>
-      <c r="B1039" t="s">
+      <c r="C1039" t="s">
         <v>3410</v>
       </c>
-      <c r="C1039" t="s">
+      <c r="D1039" t="s">
         <v>3411</v>
-      </c>
-      <c r="D1039" t="s">
-        <v>3412</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1040" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B1040" t="s">
         <v>3413</v>
       </c>
-      <c r="B1040" t="s">
+      <c r="C1040" t="s">
         <v>3414</v>
       </c>
-      <c r="C1040" t="s">
+      <c r="D1040" t="s">
         <v>3415</v>
-      </c>
-      <c r="D1040" t="s">
-        <v>3416</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1041" s="1" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="B1041" t="s">
         <v>2634</v>
       </c>
       <c r="C1041" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="D1041" t="s">
         <v>2634</v>
@@ -28359,111 +28359,111 @@
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1042" s="1" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="B1042" t="s">
         <v>2705</v>
       </c>
       <c r="C1042" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D1042" t="s">
         <v>3420</v>
-      </c>
-      <c r="D1042" t="s">
-        <v>3421</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1043" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B1043" t="s">
         <v>3422</v>
       </c>
-      <c r="B1043" t="s">
+      <c r="C1043" t="s">
         <v>3423</v>
       </c>
-      <c r="C1043" t="s">
+      <c r="D1043" t="s">
         <v>3424</v>
-      </c>
-      <c r="D1043" t="s">
-        <v>3425</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1044" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B1044" t="s">
         <v>3426</v>
       </c>
-      <c r="B1044" t="s">
+      <c r="C1044" t="s">
         <v>3427</v>
       </c>
-      <c r="C1044" t="s">
+      <c r="D1044" t="s">
         <v>3428</v>
-      </c>
-      <c r="D1044" t="s">
-        <v>3429</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1045" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B1045" t="s">
         <v>3430</v>
       </c>
-      <c r="B1045" t="s">
+      <c r="C1045" t="s">
         <v>3431</v>
       </c>
-      <c r="C1045" t="s">
+      <c r="D1045" t="s">
         <v>3432</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>3433</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1046" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B1046" t="s">
         <v>3434</v>
       </c>
-      <c r="B1046" t="s">
+      <c r="C1046" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D1046" t="s">
         <v>3435</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>3432</v>
-      </c>
-      <c r="D1046" t="s">
-        <v>3436</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1047" s="1" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="B1047" t="s">
         <v>43</v>
       </c>
       <c r="C1047" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D1047" t="s">
         <v>3438</v>
-      </c>
-      <c r="D1047" t="s">
-        <v>3439</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1048" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1048" t="s">
         <v>3440</v>
       </c>
-      <c r="B1048" t="s">
+      <c r="C1048" t="s">
         <v>3441</v>
       </c>
-      <c r="C1048" t="s">
+      <c r="D1048" t="s">
         <v>3442</v>
-      </c>
-      <c r="D1048" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1049" s="1" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="B1049" t="s">
         <v>1609</v>
       </c>
       <c r="C1049" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="D1049" t="s">
         <v>1609</v>
@@ -28471,405 +28471,405 @@
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1050" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B1050" t="s">
         <v>3446</v>
       </c>
-      <c r="B1050" t="s">
+      <c r="C1050" t="s">
         <v>3447</v>
       </c>
-      <c r="C1050" t="s">
+      <c r="D1050" t="s">
         <v>3448</v>
-      </c>
-      <c r="D1050" t="s">
-        <v>3449</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1051" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B1051" t="s">
         <v>3450</v>
       </c>
-      <c r="B1051" t="s">
+      <c r="C1051" t="s">
         <v>3451</v>
       </c>
-      <c r="C1051" t="s">
+      <c r="D1051" t="s">
         <v>3452</v>
-      </c>
-      <c r="D1051" t="s">
-        <v>3453</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1052" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B1052" t="s">
         <v>3454</v>
       </c>
-      <c r="B1052" t="s">
+      <c r="C1052" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1052" t="s">
         <v>3455</v>
-      </c>
-      <c r="C1052" t="s">
-        <v>3452</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>3456</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1053" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B1053" t="s">
         <v>3457</v>
       </c>
-      <c r="B1053" t="s">
+      <c r="C1053" t="s">
         <v>3458</v>
       </c>
-      <c r="C1053" t="s">
-        <v>3459</v>
-      </c>
       <c r="D1053" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1054" s="1" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="B1054" t="s">
         <v>185</v>
       </c>
       <c r="C1054" t="s">
+        <v>3460</v>
+      </c>
+      <c r="D1054" t="s">
         <v>3461</v>
-      </c>
-      <c r="D1054" t="s">
-        <v>3462</v>
       </c>
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1055" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B1055" t="s">
         <v>3463</v>
       </c>
-      <c r="B1055" t="s">
+      <c r="C1055" t="s">
         <v>3464</v>
       </c>
-      <c r="C1055" t="s">
+      <c r="D1055" t="s">
         <v>3465</v>
-      </c>
-      <c r="D1055" t="s">
-        <v>3466</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1056" s="1" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="B1056" t="s">
         <v>2662</v>
       </c>
       <c r="C1056" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="D1056" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1057" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B1057" t="s">
         <v>3469</v>
       </c>
-      <c r="B1057" t="s">
+      <c r="C1057" t="s">
         <v>3470</v>
       </c>
-      <c r="C1057" t="s">
-        <v>3471</v>
-      </c>
       <c r="D1057" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1058" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B1058" t="s">
         <v>3472</v>
       </c>
-      <c r="B1058" t="s">
+      <c r="C1058" t="s">
         <v>3473</v>
       </c>
-      <c r="C1058" t="s">
+      <c r="D1058" t="s">
         <v>3474</v>
-      </c>
-      <c r="D1058" t="s">
-        <v>3475</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1059" s="1" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B1059" t="s">
         <v>3476</v>
       </c>
-      <c r="B1059" t="s">
+      <c r="C1059" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D1059" t="s">
         <v>3477</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>3474</v>
-      </c>
-      <c r="D1059" t="s">
-        <v>3478</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1060" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B1060" t="s">
         <v>3479</v>
       </c>
-      <c r="B1060" t="s">
+      <c r="C1060" t="s">
         <v>3480</v>
       </c>
-      <c r="C1060" t="s">
-        <v>3481</v>
-      </c>
       <c r="D1060" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1061" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B1061" t="s">
         <v>3482</v>
       </c>
-      <c r="B1061" t="s">
+      <c r="C1061" t="s">
         <v>3483</v>
       </c>
-      <c r="C1061" t="s">
-        <v>3484</v>
-      </c>
       <c r="D1061" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1062" s="1" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="B1062" t="s">
         <v>529</v>
       </c>
       <c r="C1062" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1062" t="s">
         <v>3486</v>
-      </c>
-      <c r="D1062" t="s">
-        <v>3487</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1063" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B1063" t="s">
         <v>3488</v>
       </c>
-      <c r="B1063" t="s">
+      <c r="C1063" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1063" t="s">
         <v>3489</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>3486</v>
-      </c>
-      <c r="D1063" t="s">
-        <v>3490</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1064" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1064" t="s">
         <v>3491</v>
       </c>
-      <c r="B1064" t="s">
-        <v>3266</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>3492</v>
-      </c>
       <c r="D1064" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1065" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C1065" t="s">
         <v>3493</v>
       </c>
-      <c r="B1065" t="s">
-        <v>3377</v>
-      </c>
-      <c r="C1065" t="s">
+      <c r="D1065" t="s">
         <v>3494</v>
-      </c>
-      <c r="D1065" t="s">
-        <v>3495</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1066" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B1066" t="s">
         <v>3496</v>
       </c>
-      <c r="B1066" t="s">
+      <c r="C1066" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D1066" t="s">
         <v>3497</v>
-      </c>
-      <c r="C1066" t="s">
-        <v>3494</v>
-      </c>
-      <c r="D1066" t="s">
-        <v>3498</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1067" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1067" t="s">
         <v>3499</v>
       </c>
-      <c r="B1067" t="s">
+      <c r="C1067" t="s">
         <v>3500</v>
       </c>
-      <c r="C1067" t="s">
+      <c r="D1067" t="s">
         <v>3501</v>
-      </c>
-      <c r="D1067" t="s">
-        <v>3502</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1068" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B1068" t="s">
         <v>3503</v>
       </c>
-      <c r="B1068" t="s">
+      <c r="C1068" t="s">
         <v>3504</v>
       </c>
-      <c r="C1068" t="s">
+      <c r="D1068" t="s">
         <v>3505</v>
-      </c>
-      <c r="D1068" t="s">
-        <v>3506</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1069" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B1069" t="s">
         <v>3507</v>
       </c>
-      <c r="B1069" t="s">
+      <c r="C1069" t="s">
         <v>3508</v>
       </c>
-      <c r="C1069" t="s">
-        <v>3509</v>
-      </c>
       <c r="D1069" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1070" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B1070" t="s">
         <v>3510</v>
       </c>
-      <c r="B1070" t="s">
+      <c r="C1070" t="s">
         <v>3511</v>
       </c>
-      <c r="C1070" t="s">
+      <c r="D1070" t="s">
         <v>3512</v>
-      </c>
-      <c r="D1070" t="s">
-        <v>3513</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1071" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B1071" t="s">
         <v>3514</v>
       </c>
-      <c r="B1071" t="s">
+      <c r="C1071" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D1071" t="s">
         <v>3515</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>3512</v>
-      </c>
-      <c r="D1071" t="s">
-        <v>3516</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1072" s="1" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="B1072" t="s">
         <v>2264</v>
       </c>
       <c r="C1072" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D1072" t="s">
         <v>3518</v>
-      </c>
-      <c r="D1072" t="s">
-        <v>3519</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1073" s="1" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="B1073" t="s">
         <v>342</v>
       </c>
       <c r="C1073" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1073" t="s">
         <v>3521</v>
-      </c>
-      <c r="D1073" t="s">
-        <v>3522</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1074" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B1074" t="s">
         <v>3523</v>
       </c>
-      <c r="B1074" t="s">
+      <c r="C1074" t="s">
         <v>3524</v>
       </c>
-      <c r="C1074" t="s">
-        <v>3525</v>
-      </c>
       <c r="D1074" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1075" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B1075" t="s">
         <v>3526</v>
       </c>
-      <c r="B1075" t="s">
+      <c r="C1075" t="s">
         <v>3527</v>
       </c>
-      <c r="C1075" t="s">
+      <c r="D1075" t="s">
         <v>3528</v>
-      </c>
-      <c r="D1075" t="s">
-        <v>3529</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1076" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B1076" t="s">
         <v>3530</v>
       </c>
-      <c r="B1076" t="s">
+      <c r="C1076" t="s">
         <v>3531</v>
       </c>
-      <c r="C1076" t="s">
+      <c r="D1076" t="s">
         <v>3532</v>
-      </c>
-      <c r="D1076" t="s">
-        <v>3533</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1077" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1077" t="s">
         <v>3534</v>
       </c>
-      <c r="B1077" t="s">
+      <c r="C1077" t="s">
         <v>3535</v>
       </c>
-      <c r="C1077" t="s">
-        <v>3536</v>
-      </c>
       <c r="D1077" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1078" s="1" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="B1078" t="s">
         <v>2047</v>
       </c>
       <c r="C1078" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="D1078" t="s">
         <v>2047</v>
@@ -28877,181 +28877,181 @@
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1079" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B1079" t="s">
         <v>3539</v>
       </c>
-      <c r="B1079" t="s">
+      <c r="C1079" t="s">
         <v>3540</v>
       </c>
-      <c r="C1079" t="s">
+      <c r="D1079" t="s">
         <v>3541</v>
-      </c>
-      <c r="D1079" t="s">
-        <v>3542</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1080" s="1" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="B1080" t="s">
         <v>657</v>
       </c>
       <c r="C1080" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D1080" t="s">
         <v>3544</v>
-      </c>
-      <c r="D1080" t="s">
-        <v>3545</v>
       </c>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1081" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D1081" t="s">
         <v>3546</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>3497</v>
-      </c>
-      <c r="C1081" t="s">
-        <v>3544</v>
-      </c>
-      <c r="D1081" t="s">
-        <v>3547</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1082" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B1082" t="s">
         <v>3548</v>
       </c>
-      <c r="B1082" t="s">
+      <c r="C1082" t="s">
         <v>3549</v>
       </c>
-      <c r="C1082" t="s">
-        <v>3550</v>
-      </c>
       <c r="D1082" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1083" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B1083" t="s">
         <v>3551</v>
       </c>
-      <c r="B1083" t="s">
+      <c r="C1083" t="s">
         <v>3552</v>
       </c>
-      <c r="C1083" t="s">
-        <v>3553</v>
-      </c>
       <c r="D1083" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1084" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B1084" t="s">
         <v>3554</v>
       </c>
-      <c r="B1084" t="s">
+      <c r="C1084" t="s">
         <v>3555</v>
       </c>
-      <c r="C1084" t="s">
-        <v>3556</v>
-      </c>
       <c r="D1084" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1085" s="1" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B1085" t="s">
         <v>888</v>
       </c>
       <c r="C1085" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D1085" t="s">
         <v>3558</v>
-      </c>
-      <c r="D1085" t="s">
-        <v>3559</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1086" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B1086" t="s">
         <v>3560</v>
       </c>
-      <c r="B1086" t="s">
+      <c r="C1086" t="s">
         <v>3561</v>
       </c>
-      <c r="C1086" t="s">
+      <c r="D1086" t="s">
         <v>3562</v>
-      </c>
-      <c r="D1086" t="s">
-        <v>3563</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1087" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1087" t="s">
         <v>3564</v>
       </c>
-      <c r="B1087" t="s">
+      <c r="C1087" t="s">
         <v>3565</v>
       </c>
-      <c r="C1087" t="s">
-        <v>3566</v>
-      </c>
       <c r="D1087" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1088" s="1" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B1088" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="C1088" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="D1088" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1089" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B1089" t="s">
         <v>3568</v>
       </c>
-      <c r="B1089" t="s">
+      <c r="C1089" t="s">
         <v>3569</v>
       </c>
-      <c r="C1089" t="s">
+      <c r="D1089" t="s">
         <v>3570</v>
-      </c>
-      <c r="D1089" t="s">
-        <v>3571</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1090" s="1" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="B1090" t="s">
         <v>2338</v>
       </c>
       <c r="C1090" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="D1090" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1091" s="1" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B1091" t="s">
         <v>2687</v>
       </c>
       <c r="C1091" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="D1091" t="s">
         <v>2689</v>
@@ -29059,195 +29059,195 @@
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1092" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B1092" t="s">
         <v>3576</v>
       </c>
-      <c r="B1092" t="s">
+      <c r="C1092" t="s">
         <v>3577</v>
       </c>
-      <c r="C1092" t="s">
+      <c r="D1092" t="s">
         <v>3578</v>
-      </c>
-      <c r="D1092" t="s">
-        <v>3579</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1093" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B1093" t="s">
         <v>3580</v>
       </c>
-      <c r="B1093" t="s">
+      <c r="C1093" t="s">
         <v>3581</v>
       </c>
-      <c r="C1093" t="s">
+      <c r="D1093" t="s">
         <v>3582</v>
-      </c>
-      <c r="D1093" t="s">
-        <v>3583</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1094" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1094" t="s">
         <v>3584</v>
       </c>
-      <c r="B1094" t="s">
+      <c r="C1094" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D1094" t="s">
         <v>3585</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>3582</v>
-      </c>
-      <c r="D1094" t="s">
-        <v>3586</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1095" s="1" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="B1095" t="s">
         <v>529</v>
       </c>
       <c r="C1095" t="s">
+        <v>3587</v>
+      </c>
+      <c r="D1095" t="s">
         <v>3588</v>
-      </c>
-      <c r="D1095" t="s">
-        <v>3589</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1096" s="1" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="B1096" t="s">
         <v>563</v>
       </c>
       <c r="C1096" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="D1096" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1097" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B1097" t="s">
         <v>3592</v>
       </c>
-      <c r="B1097" t="s">
+      <c r="C1097" t="s">
         <v>3593</v>
       </c>
-      <c r="C1097" t="s">
-        <v>3594</v>
-      </c>
       <c r="D1097" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1098" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B1098" t="s">
         <v>3595</v>
       </c>
-      <c r="B1098" t="s">
-        <v>3596</v>
-      </c>
       <c r="C1098" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D1098" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1099" s="1" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B1099" t="s">
         <v>3597</v>
       </c>
-      <c r="B1099" t="s">
+      <c r="C1099" t="s">
         <v>3598</v>
       </c>
-      <c r="C1099" t="s">
+      <c r="D1099" t="s">
         <v>3599</v>
-      </c>
-      <c r="D1099" t="s">
-        <v>3600</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1100" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B1100" t="s">
         <v>3601</v>
       </c>
-      <c r="B1100" t="s">
+      <c r="C1100" t="s">
         <v>3602</v>
       </c>
-      <c r="C1100" t="s">
+      <c r="D1100" t="s">
         <v>3603</v>
-      </c>
-      <c r="D1100" t="s">
-        <v>3604</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1101" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B1101" t="s">
         <v>3605</v>
       </c>
-      <c r="B1101" t="s">
+      <c r="C1101" t="s">
         <v>3606</v>
       </c>
-      <c r="C1101" t="s">
-        <v>3607</v>
-      </c>
       <c r="D1101" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1102" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C1102" t="s">
         <v>3608</v>
       </c>
-      <c r="B1102" t="s">
-        <v>3069</v>
-      </c>
-      <c r="C1102" t="s">
+      <c r="D1102" t="s">
         <v>3609</v>
-      </c>
-      <c r="D1102" t="s">
-        <v>3610</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1103" s="1" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="B1103" t="s">
         <v>398</v>
       </c>
       <c r="C1103" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D1103" t="s">
         <v>3612</v>
-      </c>
-      <c r="D1103" t="s">
-        <v>3613</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1104" s="1" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="B1104" t="s">
         <v>200</v>
       </c>
       <c r="C1104" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D1104" t="s">
         <v>3615</v>
-      </c>
-      <c r="D1104" t="s">
-        <v>3616</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1105" s="1" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="B1105" t="s">
         <v>1044</v>
       </c>
       <c r="C1105" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="D1105" t="s">
         <v>1044</v>
@@ -29255,13 +29255,13 @@
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1106" s="1" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="B1106" t="s">
         <v>314</v>
       </c>
       <c r="C1106" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="D1106" t="s">
         <v>314</v>
@@ -29269,125 +29269,125 @@
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1107" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B1107" t="s">
         <v>3620</v>
       </c>
-      <c r="B1107" t="s">
+      <c r="C1107" t="s">
         <v>3621</v>
       </c>
-      <c r="C1107" t="s">
+      <c r="D1107" t="s">
         <v>3622</v>
-      </c>
-      <c r="D1107" t="s">
-        <v>3623</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1108" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1108" t="s">
         <v>3624</v>
       </c>
-      <c r="B1108" t="s">
+      <c r="C1108" t="s">
         <v>3625</v>
       </c>
-      <c r="C1108" t="s">
+      <c r="D1108" t="s">
         <v>3626</v>
-      </c>
-      <c r="D1108" t="s">
-        <v>3627</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1109" s="1" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B1109" t="s">
         <v>743</v>
       </c>
       <c r="C1109" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D1109" t="s">
         <v>3629</v>
-      </c>
-      <c r="D1109" t="s">
-        <v>3630</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1110" s="1" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="B1110" t="s">
         <v>2361</v>
       </c>
       <c r="C1110" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D1110" t="s">
         <v>3632</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>3633</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1111" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B1111" t="s">
         <v>3634</v>
       </c>
-      <c r="B1111" t="s">
+      <c r="C1111" t="s">
         <v>3635</v>
       </c>
-      <c r="C1111" t="s">
+      <c r="D1111" t="s">
         <v>3636</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>3637</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1112" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B1112" t="s">
         <v>3638</v>
       </c>
-      <c r="B1112" t="s">
+      <c r="C1112" t="s">
         <v>3639</v>
       </c>
-      <c r="C1112" t="s">
-        <v>3640</v>
-      </c>
       <c r="D1112" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1113" s="1" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C1113" t="s">
         <v>3641</v>
       </c>
-      <c r="B1113" t="s">
-        <v>3328</v>
-      </c>
-      <c r="C1113" t="s">
-        <v>3642</v>
-      </c>
       <c r="D1113" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1114" s="1" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B1114" t="s">
         <v>563</v>
       </c>
       <c r="C1114" t="s">
+        <v>3643</v>
+      </c>
+      <c r="D1114" t="s">
         <v>3644</v>
-      </c>
-      <c r="D1114" t="s">
-        <v>3645</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1115" s="1" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B1115" t="s">
         <v>1472</v>
       </c>
       <c r="C1115" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="D1115" t="s">
         <v>1472</v>
@@ -29395,167 +29395,167 @@
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1116" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B1116" t="s">
         <v>3648</v>
       </c>
-      <c r="B1116" t="s">
+      <c r="C1116" t="s">
         <v>3649</v>
       </c>
-      <c r="C1116" t="s">
-        <v>3650</v>
-      </c>
       <c r="D1116" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1117" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B1117" t="s">
         <v>3651</v>
       </c>
-      <c r="B1117" t="s">
+      <c r="C1117" t="s">
         <v>3652</v>
       </c>
-      <c r="C1117" t="s">
+      <c r="D1117" t="s">
         <v>3653</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>3654</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1118" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B1118" t="s">
         <v>3655</v>
       </c>
-      <c r="B1118" t="s">
+      <c r="C1118" t="s">
         <v>3656</v>
       </c>
-      <c r="C1118" t="s">
+      <c r="D1118" t="s">
         <v>3657</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>3658</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1119" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C1119" t="s">
         <v>3659</v>
       </c>
-      <c r="B1119" t="s">
-        <v>3549</v>
-      </c>
-      <c r="C1119" t="s">
+      <c r="D1119" t="s">
         <v>3660</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>3661</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1120" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B1120" t="s">
         <v>3662</v>
       </c>
-      <c r="B1120" t="s">
+      <c r="C1120" t="s">
         <v>3663</v>
       </c>
-      <c r="C1120" t="s">
+      <c r="D1120" t="s">
         <v>3664</v>
-      </c>
-      <c r="D1120" t="s">
-        <v>3665</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1121" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B1121" t="s">
         <v>3666</v>
       </c>
-      <c r="B1121" t="s">
+      <c r="C1121" t="s">
         <v>3667</v>
       </c>
-      <c r="C1121" t="s">
-        <v>3668</v>
-      </c>
       <c r="D1121" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1122" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B1122" t="s">
         <v>3669</v>
       </c>
-      <c r="B1122" t="s">
+      <c r="C1122" t="s">
         <v>3670</v>
       </c>
-      <c r="C1122" t="s">
+      <c r="D1122" t="s">
         <v>3671</v>
-      </c>
-      <c r="D1122" t="s">
-        <v>3672</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1123" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B1123" t="s">
         <v>3673</v>
       </c>
-      <c r="B1123" t="s">
+      <c r="C1123" t="s">
         <v>3674</v>
       </c>
-      <c r="C1123" t="s">
-        <v>3675</v>
-      </c>
       <c r="D1123" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1124" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B1124" t="s">
         <v>3676</v>
       </c>
-      <c r="B1124" t="s">
+      <c r="C1124" t="s">
         <v>3677</v>
       </c>
-      <c r="C1124" t="s">
+      <c r="D1124" t="s">
         <v>3678</v>
-      </c>
-      <c r="D1124" t="s">
-        <v>3679</v>
       </c>
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1125" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B1125" t="s">
         <v>3680</v>
       </c>
-      <c r="B1125" t="s">
+      <c r="C1125" t="s">
         <v>3681</v>
       </c>
-      <c r="C1125" t="s">
-        <v>3682</v>
-      </c>
       <c r="D1125" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1126" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B1126" t="s">
         <v>3683</v>
       </c>
-      <c r="B1126" t="s">
+      <c r="C1126" t="s">
         <v>3684</v>
       </c>
-      <c r="C1126" t="s">
+      <c r="D1126" t="s">
         <v>3685</v>
-      </c>
-      <c r="D1126" t="s">
-        <v>3686</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1127" s="1" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="B1127" t="s">
         <v>1675</v>
       </c>
       <c r="C1127" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="D1127" t="s">
         <v>2839</v>
@@ -29563,83 +29563,83 @@
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1128" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B1128" t="s">
         <v>3689</v>
       </c>
-      <c r="B1128" t="s">
+      <c r="C1128" t="s">
         <v>3690</v>
       </c>
-      <c r="C1128" t="s">
+      <c r="D1128" t="s">
         <v>3691</v>
-      </c>
-      <c r="D1128" t="s">
-        <v>3692</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1129" s="1" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="B1129" t="s">
         <v>293</v>
       </c>
       <c r="C1129" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D1129" t="s">
         <v>3694</v>
-      </c>
-      <c r="D1129" t="s">
-        <v>3695</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1130" s="1" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1130" t="s">
         <v>3696</v>
       </c>
-      <c r="B1130" t="s">
+      <c r="C1130" t="s">
         <v>3697</v>
       </c>
-      <c r="C1130" t="s">
-        <v>3698</v>
-      </c>
       <c r="D1130" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1131" s="1" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B1131" t="s">
         <v>3699</v>
       </c>
-      <c r="B1131" t="s">
+      <c r="C1131" t="s">
         <v>3700</v>
       </c>
-      <c r="C1131" t="s">
-        <v>3701</v>
-      </c>
       <c r="D1131" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1132" s="1" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1132" t="s">
         <v>3702</v>
       </c>
-      <c r="B1132" t="s">
+      <c r="C1132" t="s">
         <v>3703</v>
       </c>
-      <c r="C1132" t="s">
+      <c r="D1132" t="s">
         <v>3704</v>
-      </c>
-      <c r="D1132" t="s">
-        <v>3705</v>
       </c>
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1133" s="1" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="B1133" t="s">
         <v>248</v>
       </c>
       <c r="C1133" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="D1133" t="s">
         <v>248</v>
@@ -29647,643 +29647,643 @@
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1134" s="1" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B1134" t="s">
         <v>3708</v>
       </c>
-      <c r="B1134" t="s">
+      <c r="C1134" t="s">
         <v>3709</v>
       </c>
-      <c r="C1134" t="s">
-        <v>3710</v>
-      </c>
       <c r="D1134" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1135" s="1" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="B1135" t="s">
         <v>1322</v>
       </c>
       <c r="C1135" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D1135" t="s">
         <v>3712</v>
-      </c>
-      <c r="D1135" t="s">
-        <v>3713</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1136" s="1" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="B1136" t="s">
         <v>584</v>
       </c>
       <c r="C1136" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1136" t="s">
         <v>3715</v>
-      </c>
-      <c r="D1136" t="s">
-        <v>3716</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1137" s="1" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B1137" t="s">
         <v>3717</v>
       </c>
-      <c r="B1137" t="s">
+      <c r="C1137" t="s">
         <v>3718</v>
       </c>
-      <c r="C1137" t="s">
+      <c r="D1137" t="s">
         <v>3719</v>
-      </c>
-      <c r="D1137" t="s">
-        <v>3720</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1138" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B1138" t="s">
         <v>3721</v>
       </c>
-      <c r="B1138" t="s">
+      <c r="C1138" t="s">
         <v>3722</v>
       </c>
-      <c r="C1138" t="s">
+      <c r="D1138" t="s">
         <v>3723</v>
-      </c>
-      <c r="D1138" t="s">
-        <v>3724</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1139" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1139" t="s">
         <v>3725</v>
       </c>
-      <c r="B1139" t="s">
+      <c r="C1139" t="s">
         <v>3726</v>
       </c>
-      <c r="C1139" t="s">
+      <c r="D1139" t="s">
         <v>3727</v>
-      </c>
-      <c r="D1139" t="s">
-        <v>3728</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1140" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B1140" t="s">
         <v>3729</v>
       </c>
-      <c r="B1140" t="s">
+      <c r="C1140" t="s">
         <v>3730</v>
       </c>
-      <c r="C1140" t="s">
+      <c r="D1140" t="s">
         <v>3731</v>
-      </c>
-      <c r="D1140" t="s">
-        <v>3732</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1141" s="1" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="B1141" t="s">
         <v>936</v>
       </c>
       <c r="C1141" t="s">
+        <v>3733</v>
+      </c>
+      <c r="D1141" t="s">
         <v>3734</v>
-      </c>
-      <c r="D1141" t="s">
-        <v>3735</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1142" s="1" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="B1142" t="s">
         <v>563</v>
       </c>
       <c r="C1142" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D1142" t="s">
         <v>3737</v>
-      </c>
-      <c r="D1142" t="s">
-        <v>3738</v>
       </c>
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1143" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C1143" t="s">
         <v>3739</v>
       </c>
-      <c r="B1143" t="s">
-        <v>3585</v>
-      </c>
-      <c r="C1143" t="s">
+      <c r="D1143" t="s">
         <v>3740</v>
-      </c>
-      <c r="D1143" t="s">
-        <v>3741</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1144" s="1" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B1144" t="s">
         <v>3742</v>
       </c>
-      <c r="B1144" t="s">
+      <c r="C1144" t="s">
         <v>3743</v>
       </c>
-      <c r="C1144" t="s">
+      <c r="D1144" t="s">
         <v>3744</v>
-      </c>
-      <c r="D1144" t="s">
-        <v>3745</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1145" s="1" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1145" t="s">
         <v>3746</v>
       </c>
-      <c r="B1145" t="s">
+      <c r="C1145" t="s">
         <v>3747</v>
       </c>
-      <c r="C1145" t="s">
-        <v>3748</v>
-      </c>
       <c r="D1145" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1146" s="1" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B1146" t="s">
         <v>3749</v>
       </c>
-      <c r="B1146" t="s">
+      <c r="C1146" t="s">
         <v>3750</v>
       </c>
-      <c r="C1146" t="s">
-        <v>3751</v>
-      </c>
       <c r="D1146" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1147" s="1" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C1147" t="s">
         <v>3752</v>
       </c>
-      <c r="B1147" t="s">
-        <v>3279</v>
-      </c>
-      <c r="C1147" t="s">
+      <c r="D1147" t="s">
         <v>3753</v>
-      </c>
-      <c r="D1147" t="s">
-        <v>3754</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1148" s="1" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B1148" t="s">
         <v>3755</v>
       </c>
-      <c r="B1148" t="s">
+      <c r="C1148" t="s">
         <v>3756</v>
       </c>
-      <c r="C1148" t="s">
+      <c r="D1148" t="s">
         <v>3757</v>
-      </c>
-      <c r="D1148" t="s">
-        <v>3758</v>
       </c>
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1149" s="1" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B1149" t="s">
         <v>3759</v>
       </c>
-      <c r="B1149" t="s">
+      <c r="C1149" t="s">
         <v>3760</v>
       </c>
-      <c r="C1149" t="s">
-        <v>3761</v>
-      </c>
       <c r="D1149" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1150" s="1" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B1150" t="s">
         <v>3762</v>
       </c>
-      <c r="B1150" t="s">
+      <c r="C1150" t="s">
         <v>3763</v>
       </c>
-      <c r="C1150" t="s">
+      <c r="D1150" t="s">
         <v>3764</v>
-      </c>
-      <c r="D1150" t="s">
-        <v>3765</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1151" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B1151" t="s">
         <v>3766</v>
       </c>
-      <c r="B1151" t="s">
+      <c r="C1151" t="s">
         <v>3767</v>
       </c>
-      <c r="C1151" t="s">
+      <c r="D1151" t="s">
         <v>3768</v>
-      </c>
-      <c r="D1151" t="s">
-        <v>3769</v>
       </c>
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1152" s="1" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B1152" t="s">
         <v>3770</v>
       </c>
-      <c r="B1152" t="s">
+      <c r="C1152" t="s">
         <v>3771</v>
       </c>
-      <c r="C1152" t="s">
+      <c r="D1152" t="s">
         <v>3772</v>
-      </c>
-      <c r="D1152" t="s">
-        <v>3773</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1153" s="1" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B1153" t="s">
         <v>3774</v>
       </c>
-      <c r="B1153" t="s">
+      <c r="C1153" t="s">
         <v>3775</v>
       </c>
-      <c r="C1153" t="s">
+      <c r="D1153" t="s">
         <v>3776</v>
-      </c>
-      <c r="D1153" t="s">
-        <v>3777</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1154" s="1" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1154" t="s">
         <v>3778</v>
       </c>
-      <c r="B1154" t="s">
+      <c r="C1154" t="s">
         <v>3779</v>
       </c>
-      <c r="C1154" t="s">
+      <c r="D1154" t="s">
         <v>3780</v>
-      </c>
-      <c r="D1154" t="s">
-        <v>3781</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1155" s="1" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="B1155" t="s">
         <v>2826</v>
       </c>
       <c r="C1155" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D1155" t="s">
         <v>3783</v>
-      </c>
-      <c r="D1155" t="s">
-        <v>3784</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1156" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B1156" t="s">
         <v>3785</v>
       </c>
-      <c r="B1156" t="s">
+      <c r="C1156" t="s">
         <v>3786</v>
       </c>
-      <c r="C1156" t="s">
-        <v>3787</v>
-      </c>
       <c r="D1156" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1157" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B1157" t="s">
         <v>3788</v>
       </c>
-      <c r="B1157" t="s">
-        <v>3789</v>
-      </c>
       <c r="C1157" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="D1157" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1158" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B1158" t="s">
         <v>3790</v>
       </c>
-      <c r="B1158" t="s">
+      <c r="C1158" t="s">
         <v>3791</v>
       </c>
-      <c r="C1158" t="s">
-        <v>3792</v>
-      </c>
       <c r="D1158" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1159" s="1" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B1159" t="s">
         <v>3793</v>
       </c>
-      <c r="B1159" t="s">
-        <v>3794</v>
-      </c>
       <c r="C1159" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="D1159" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1160" s="1" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="B1160" t="s">
         <v>1609</v>
       </c>
       <c r="C1160" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D1160" t="s">
         <v>3796</v>
-      </c>
-      <c r="D1160" t="s">
-        <v>3797</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1161" s="1" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1161" t="s">
         <v>3798</v>
       </c>
-      <c r="B1161" t="s">
+      <c r="C1161" t="s">
         <v>3799</v>
       </c>
-      <c r="C1161" t="s">
+      <c r="D1161" t="s">
         <v>3800</v>
-      </c>
-      <c r="D1161" t="s">
-        <v>3801</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1162" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B1162" t="s">
         <v>3802</v>
       </c>
-      <c r="B1162" t="s">
+      <c r="C1162" t="s">
         <v>3803</v>
       </c>
-      <c r="C1162" t="s">
+      <c r="D1162" t="s">
         <v>3804</v>
-      </c>
-      <c r="D1162" t="s">
-        <v>3805</v>
       </c>
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1163" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B1163" t="s">
         <v>3806</v>
       </c>
-      <c r="B1163" t="s">
+      <c r="C1163" t="s">
         <v>3807</v>
       </c>
-      <c r="C1163" t="s">
+      <c r="D1163" t="s">
         <v>3808</v>
-      </c>
-      <c r="D1163" t="s">
-        <v>3809</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1164" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B1164" t="s">
         <v>3810</v>
       </c>
-      <c r="B1164" t="s">
+      <c r="C1164" t="s">
         <v>3811</v>
       </c>
-      <c r="C1164" t="s">
+      <c r="D1164" t="s">
         <v>3812</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>3813</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1165" s="1" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B1165" t="s">
         <v>1838</v>
       </c>
       <c r="C1165" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D1165" t="s">
         <v>3815</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>3816</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1166" s="1" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B1166" t="s">
         <v>3817</v>
       </c>
-      <c r="B1166" t="s">
+      <c r="C1166" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D1166" t="s">
         <v>3818</v>
-      </c>
-      <c r="C1166" t="s">
-        <v>3815</v>
-      </c>
-      <c r="D1166" t="s">
-        <v>3819</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1167" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B1167" t="s">
         <v>3820</v>
       </c>
-      <c r="B1167" t="s">
+      <c r="C1167" t="s">
         <v>3821</v>
       </c>
-      <c r="C1167" t="s">
+      <c r="D1167" t="s">
         <v>3822</v>
-      </c>
-      <c r="D1167" t="s">
-        <v>3823</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1168" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B1168" t="s">
         <v>3824</v>
       </c>
-      <c r="B1168" t="s">
+      <c r="C1168" t="s">
         <v>3825</v>
       </c>
-      <c r="C1168" t="s">
-        <v>3826</v>
-      </c>
       <c r="D1168" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1169" s="1" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="B1169" t="s">
         <v>1522</v>
       </c>
       <c r="C1169" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D1169" t="s">
         <v>3828</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>3829</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1170" s="1" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B1170" t="s">
         <v>609</v>
       </c>
       <c r="C1170" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D1170" t="s">
         <v>3831</v>
-      </c>
-      <c r="D1170" t="s">
-        <v>3832</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1171" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C1171" t="s">
         <v>3833</v>
       </c>
-      <c r="B1171" t="s">
-        <v>3118</v>
-      </c>
-      <c r="C1171" t="s">
+      <c r="D1171" t="s">
         <v>3834</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>3835</v>
       </c>
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1172" s="1" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="B1172" t="s">
         <v>185</v>
       </c>
       <c r="C1172" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D1172" t="s">
         <v>3837</v>
-      </c>
-      <c r="D1172" t="s">
-        <v>3838</v>
       </c>
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1173" s="1" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B1173" t="s">
         <v>3839</v>
       </c>
-      <c r="B1173" t="s">
+      <c r="C1173" t="s">
         <v>3840</v>
       </c>
-      <c r="C1173" t="s">
-        <v>3841</v>
-      </c>
       <c r="D1173" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1174" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B1174" t="s">
         <v>3842</v>
       </c>
-      <c r="B1174" t="s">
+      <c r="C1174" t="s">
         <v>3843</v>
       </c>
-      <c r="C1174" t="s">
+      <c r="D1174" t="s">
         <v>3844</v>
-      </c>
-      <c r="D1174" t="s">
-        <v>3845</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1175" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1175" t="s">
         <v>3846</v>
       </c>
-      <c r="B1175" t="s">
+      <c r="C1175" t="s">
         <v>3847</v>
       </c>
-      <c r="C1175" t="s">
+      <c r="D1175" t="s">
         <v>3848</v>
-      </c>
-      <c r="D1175" t="s">
-        <v>3849</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1176" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B1176" t="s">
         <v>3850</v>
       </c>
-      <c r="B1176" t="s">
+      <c r="C1176" t="s">
         <v>3851</v>
       </c>
-      <c r="C1176" t="s">
+      <c r="D1176" t="s">
         <v>3852</v>
-      </c>
-      <c r="D1176" t="s">
-        <v>3853</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1177" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B1177" t="s">
         <v>3854</v>
       </c>
-      <c r="B1177" t="s">
+      <c r="C1177" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D1177" t="s">
         <v>3855</v>
-      </c>
-      <c r="C1177" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D1177" t="s">
-        <v>3856</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1178" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B1178" t="s">
         <v>3857</v>
       </c>
-      <c r="B1178" t="s">
+      <c r="C1178" t="s">
         <v>3858</v>
       </c>
-      <c r="C1178" t="s">
+      <c r="D1178" t="s">
         <v>3859</v>
-      </c>
-      <c r="D1178" t="s">
-        <v>3860</v>
       </c>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1179" s="1" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="B1179" t="s">
         <v>227</v>
       </c>
       <c r="C1179" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="D1179" t="s">
         <v>227</v>
@@ -30291,153 +30291,153 @@
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1180" s="1" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B1180" t="s">
         <v>3863</v>
       </c>
-      <c r="B1180" t="s">
+      <c r="C1180" t="s">
         <v>3864</v>
       </c>
-      <c r="C1180" t="s">
+      <c r="D1180" t="s">
         <v>3865</v>
-      </c>
-      <c r="D1180" t="s">
-        <v>3866</v>
       </c>
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1181" s="1" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="B1181" t="s">
         <v>369</v>
       </c>
       <c r="C1181" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D1181" t="s">
         <v>3868</v>
-      </c>
-      <c r="D1181" t="s">
-        <v>3869</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1182" s="1" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1182" t="s">
         <v>3870</v>
       </c>
-      <c r="B1182" t="s">
+      <c r="C1182" t="s">
         <v>3871</v>
       </c>
-      <c r="C1182" t="s">
+      <c r="D1182" t="s">
         <v>3872</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>3873</v>
       </c>
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1183" s="1" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="B1183" t="s">
         <v>1939</v>
       </c>
       <c r="C1183" t="s">
+        <v>3874</v>
+      </c>
+      <c r="D1183" t="s">
         <v>3875</v>
-      </c>
-      <c r="D1183" t="s">
-        <v>3876</v>
       </c>
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1184" s="1" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B1184" t="s">
         <v>3877</v>
       </c>
-      <c r="B1184" t="s">
+      <c r="C1184" t="s">
         <v>3878</v>
       </c>
-      <c r="C1184" t="s">
+      <c r="D1184" t="s">
         <v>3879</v>
-      </c>
-      <c r="D1184" t="s">
-        <v>3880</v>
       </c>
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1185" s="1" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B1185" t="s">
         <v>3881</v>
       </c>
-      <c r="B1185" t="s">
+      <c r="C1185" t="s">
         <v>3882</v>
       </c>
-      <c r="C1185" t="s">
+      <c r="D1185" t="s">
         <v>3883</v>
-      </c>
-      <c r="D1185" t="s">
-        <v>3884</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1186" s="1" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B1186" t="s">
         <v>3885</v>
       </c>
-      <c r="B1186" t="s">
+      <c r="C1186" t="s">
         <v>3886</v>
       </c>
-      <c r="C1186" t="s">
-        <v>3887</v>
-      </c>
       <c r="D1186" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1187" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B1187" t="s">
         <v>3888</v>
       </c>
-      <c r="B1187" t="s">
+      <c r="C1187" t="s">
         <v>3889</v>
       </c>
-      <c r="C1187" t="s">
+      <c r="D1187" t="s">
         <v>3890</v>
-      </c>
-      <c r="D1187" t="s">
-        <v>3891</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1188" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B1188" t="s">
         <v>3892</v>
       </c>
-      <c r="B1188" t="s">
+      <c r="C1188" t="s">
         <v>3893</v>
       </c>
-      <c r="C1188" t="s">
+      <c r="D1188" t="s">
         <v>3894</v>
-      </c>
-      <c r="D1188" t="s">
-        <v>3895</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1189" s="1" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="B1189" t="s">
         <v>1044</v>
       </c>
       <c r="C1189" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D1189" t="s">
         <v>3897</v>
-      </c>
-      <c r="D1189" t="s">
-        <v>3898</v>
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1190" s="1" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="B1190" t="s">
         <v>2232</v>
       </c>
       <c r="C1190" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="D1190" t="s">
         <v>2232</v>
@@ -30445,69 +30445,69 @@
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1191" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>3742</v>
+      </c>
+      <c r="C1191" t="s">
         <v>3901</v>
       </c>
-      <c r="B1191" t="s">
-        <v>3743</v>
-      </c>
-      <c r="C1191" t="s">
+      <c r="D1191" t="s">
         <v>3902</v>
-      </c>
-      <c r="D1191" t="s">
-        <v>3903</v>
       </c>
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1192" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B1192" t="s">
         <v>3904</v>
       </c>
-      <c r="B1192" t="s">
+      <c r="C1192" t="s">
         <v>3905</v>
       </c>
-      <c r="C1192" t="s">
+      <c r="D1192" t="s">
         <v>3906</v>
-      </c>
-      <c r="D1192" t="s">
-        <v>3907</v>
       </c>
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1193" s="1" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="B1193" t="s">
         <v>563</v>
       </c>
       <c r="C1193" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D1193" t="s">
         <v>3909</v>
-      </c>
-      <c r="D1193" t="s">
-        <v>3910</v>
       </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1194" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B1194" t="s">
         <v>3911</v>
       </c>
-      <c r="B1194" t="s">
+      <c r="C1194" t="s">
         <v>3912</v>
       </c>
-      <c r="C1194" t="s">
-        <v>3913</v>
-      </c>
       <c r="D1194" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1195" s="1" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="B1195" t="s">
         <v>2524</v>
       </c>
       <c r="C1195" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="D1195" t="s">
         <v>2524</v>
@@ -30515,13 +30515,13 @@
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1196" s="1" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="B1196" t="s">
         <v>1448</v>
       </c>
       <c r="C1196" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="D1196" t="s">
         <v>1448</v>
@@ -30529,475 +30529,475 @@
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1197" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B1197" t="s">
         <v>3917</v>
       </c>
-      <c r="B1197" t="s">
+      <c r="C1197" t="s">
         <v>3918</v>
       </c>
-      <c r="C1197" t="s">
+      <c r="D1197" t="s">
         <v>3919</v>
-      </c>
-      <c r="D1197" t="s">
-        <v>3920</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1198" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B1198" t="s">
         <v>3921</v>
       </c>
-      <c r="B1198" t="s">
+      <c r="C1198" t="s">
         <v>3922</v>
       </c>
-      <c r="C1198" t="s">
-        <v>3923</v>
-      </c>
       <c r="D1198" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1199" s="1" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="B1199" t="s">
         <v>2599</v>
       </c>
       <c r="C1199" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D1199" t="s">
         <v>3925</v>
-      </c>
-      <c r="D1199" t="s">
-        <v>3926</v>
       </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1200" s="1" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B1200" t="s">
         <v>3927</v>
       </c>
-      <c r="B1200" t="s">
+      <c r="C1200" t="s">
         <v>3928</v>
       </c>
-      <c r="C1200" t="s">
+      <c r="D1200" t="s">
         <v>3929</v>
-      </c>
-      <c r="D1200" t="s">
-        <v>3930</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1201" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B1201" t="s">
         <v>3931</v>
       </c>
-      <c r="B1201" t="s">
+      <c r="C1201" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D1201" t="s">
         <v>3932</v>
-      </c>
-      <c r="C1201" t="s">
-        <v>3929</v>
-      </c>
-      <c r="D1201" t="s">
-        <v>3933</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1202" s="1" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="B1202" t="s">
         <v>1950</v>
       </c>
       <c r="C1202" t="s">
+        <v>3934</v>
+      </c>
+      <c r="D1202" t="s">
         <v>3935</v>
-      </c>
-      <c r="D1202" t="s">
-        <v>3936</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1203" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B1203" t="s">
         <v>3937</v>
       </c>
-      <c r="B1203" t="s">
+      <c r="C1203" t="s">
         <v>3938</v>
       </c>
-      <c r="C1203" t="s">
+      <c r="D1203" t="s">
         <v>3939</v>
-      </c>
-      <c r="D1203" t="s">
-        <v>3940</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1204" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>3885</v>
+      </c>
+      <c r="C1204" t="s">
         <v>3941</v>
       </c>
-      <c r="B1204" t="s">
-        <v>3886</v>
-      </c>
-      <c r="C1204" t="s">
-        <v>3942</v>
-      </c>
       <c r="D1204" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1205" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1205" t="s">
         <v>3943</v>
       </c>
-      <c r="B1205" t="s">
+      <c r="C1205" t="s">
         <v>3944</v>
       </c>
-      <c r="C1205" t="s">
-        <v>3945</v>
-      </c>
       <c r="D1205" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1206" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B1206" t="s">
         <v>3946</v>
       </c>
-      <c r="B1206" t="s">
+      <c r="C1206" t="s">
         <v>3947</v>
       </c>
-      <c r="C1206" t="s">
+      <c r="D1206" t="s">
         <v>3948</v>
-      </c>
-      <c r="D1206" t="s">
-        <v>3949</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1207" s="1" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="B1207" t="s">
         <v>2087</v>
       </c>
       <c r="C1207" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D1207" t="s">
         <v>3951</v>
-      </c>
-      <c r="D1207" t="s">
-        <v>3952</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1208" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B1208" t="s">
         <v>3953</v>
       </c>
-      <c r="B1208" t="s">
+      <c r="C1208" t="s">
         <v>3954</v>
       </c>
-      <c r="C1208" t="s">
+      <c r="D1208" t="s">
         <v>3955</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>3956</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1209" s="1" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1209" t="s">
         <v>3957</v>
       </c>
-      <c r="B1209" t="s">
+      <c r="C1209" t="s">
         <v>3958</v>
       </c>
-      <c r="C1209" t="s">
+      <c r="D1209" t="s">
         <v>3959</v>
-      </c>
-      <c r="D1209" t="s">
-        <v>3960</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1210" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1210" t="s">
         <v>3961</v>
       </c>
-      <c r="B1210" t="s">
-        <v>3036</v>
-      </c>
-      <c r="C1210" t="s">
-        <v>3962</v>
-      </c>
       <c r="D1210" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1211" s="1" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B1211" t="s">
         <v>3963</v>
       </c>
-      <c r="B1211" t="s">
+      <c r="C1211" t="s">
         <v>3964</v>
       </c>
-      <c r="C1211" t="s">
-        <v>3965</v>
-      </c>
       <c r="D1211" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1212" s="1" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B1212" t="s">
         <v>3966</v>
       </c>
-      <c r="B1212" t="s">
+      <c r="C1212" t="s">
         <v>3967</v>
       </c>
-      <c r="C1212" t="s">
-        <v>3968</v>
-      </c>
       <c r="D1212" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1213" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B1213" t="s">
         <v>3969</v>
       </c>
-      <c r="B1213" t="s">
+      <c r="C1213" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D1213" t="s">
         <v>3970</v>
-      </c>
-      <c r="C1213" t="s">
-        <v>3968</v>
-      </c>
-      <c r="D1213" t="s">
-        <v>3971</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1214" s="1" t="s">
+        <v>3971</v>
+      </c>
+      <c r="B1214" t="s">
         <v>3972</v>
       </c>
-      <c r="B1214" t="s">
+      <c r="C1214" t="s">
         <v>3973</v>
       </c>
-      <c r="C1214" t="s">
+      <c r="D1214" t="s">
         <v>3974</v>
-      </c>
-      <c r="D1214" t="s">
-        <v>3975</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1215" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="B1215" t="s">
         <v>3976</v>
       </c>
-      <c r="B1215" t="s">
+      <c r="C1215" t="s">
         <v>3977</v>
       </c>
-      <c r="C1215" t="s">
-        <v>3978</v>
-      </c>
       <c r="D1215" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1216" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1216" t="s">
         <v>3979</v>
       </c>
-      <c r="B1216" t="s">
-        <v>3218</v>
-      </c>
-      <c r="C1216" t="s">
-        <v>3980</v>
-      </c>
       <c r="D1216" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1217" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B1217" t="s">
         <v>3981</v>
       </c>
-      <c r="B1217" t="s">
+      <c r="C1217" t="s">
         <v>3982</v>
       </c>
-      <c r="C1217" t="s">
+      <c r="D1217" t="s">
         <v>3983</v>
-      </c>
-      <c r="D1217" t="s">
-        <v>3984</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1218" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B1218" t="s">
         <v>3985</v>
       </c>
-      <c r="B1218" t="s">
+      <c r="C1218" t="s">
         <v>3986</v>
       </c>
-      <c r="C1218" t="s">
-        <v>3987</v>
-      </c>
       <c r="D1218" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1219" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B1219" t="s">
         <v>3988</v>
       </c>
-      <c r="B1219" t="s">
+      <c r="C1219" t="s">
         <v>3989</v>
       </c>
-      <c r="C1219" t="s">
+      <c r="D1219" t="s">
         <v>3990</v>
-      </c>
-      <c r="D1219" t="s">
-        <v>3991</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1220" s="1" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B1220" t="s">
         <v>3992</v>
       </c>
-      <c r="B1220" t="s">
+      <c r="C1220" t="s">
         <v>3993</v>
       </c>
-      <c r="C1220" t="s">
-        <v>3994</v>
-      </c>
       <c r="D1220" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1221" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B1221" t="s">
         <v>3995</v>
       </c>
-      <c r="B1221" t="s">
+      <c r="C1221" t="s">
         <v>3996</v>
       </c>
-      <c r="C1221" t="s">
-        <v>3997</v>
-      </c>
       <c r="D1221" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1222" s="1" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B1222" t="s">
         <v>3998</v>
       </c>
-      <c r="B1222" t="s">
+      <c r="C1222" t="s">
         <v>3999</v>
       </c>
-      <c r="C1222" t="s">
-        <v>4000</v>
-      </c>
       <c r="D1222" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1223" s="1" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B1223" t="s">
         <v>4001</v>
       </c>
-      <c r="B1223" t="s">
+      <c r="C1223" t="s">
         <v>4002</v>
       </c>
-      <c r="C1223" t="s">
-        <v>4003</v>
-      </c>
       <c r="D1223" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1224" s="1" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B1224" t="s">
         <v>4004</v>
       </c>
-      <c r="B1224" t="s">
+      <c r="C1224" t="s">
         <v>4005</v>
       </c>
-      <c r="C1224" t="s">
-        <v>4006</v>
-      </c>
       <c r="D1224" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1225" s="1" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B1225" t="s">
         <v>4007</v>
       </c>
-      <c r="B1225" t="s">
+      <c r="C1225" t="s">
         <v>4008</v>
       </c>
-      <c r="C1225" t="s">
-        <v>4009</v>
-      </c>
       <c r="D1225" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1226" s="1" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B1226" t="s">
         <v>918</v>
       </c>
       <c r="C1226" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D1226" t="s">
         <v>4011</v>
-      </c>
-      <c r="D1226" t="s">
-        <v>4012</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1227" s="1" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B1227" t="s">
         <v>4013</v>
       </c>
-      <c r="B1227" t="s">
+      <c r="C1227" t="s">
         <v>4014</v>
       </c>
-      <c r="C1227" t="s">
-        <v>4015</v>
-      </c>
       <c r="D1227" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1228" s="1" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B1228" t="s">
         <v>4016</v>
       </c>
-      <c r="B1228" t="s">
+      <c r="C1228" t="s">
         <v>4017</v>
       </c>
-      <c r="C1228" t="s">
+      <c r="D1228" t="s">
         <v>4018</v>
-      </c>
-      <c r="D1228" t="s">
-        <v>4019</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1229" s="1" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B1229" t="s">
         <v>4020</v>
       </c>
-      <c r="B1229" t="s">
+      <c r="C1229" t="s">
         <v>4021</v>
       </c>
-      <c r="C1229" t="s">
+      <c r="D1229" t="s">
         <v>4022</v>
-      </c>
-      <c r="D1229" t="s">
-        <v>4023</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1230" s="1" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="B1230" t="s">
         <v>2468</v>
       </c>
       <c r="C1230" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="D1230" t="s">
         <v>2468</v>
@@ -31005,391 +31005,391 @@
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1231" s="1" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B1231" t="s">
         <v>4026</v>
       </c>
-      <c r="B1231" t="s">
+      <c r="C1231" t="s">
         <v>4027</v>
       </c>
-      <c r="C1231" t="s">
-        <v>4028</v>
-      </c>
       <c r="D1231" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1232" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B1232" t="s">
         <v>4029</v>
       </c>
-      <c r="B1232" t="s">
+      <c r="C1232" t="s">
         <v>4030</v>
       </c>
-      <c r="C1232" t="s">
-        <v>4031</v>
-      </c>
       <c r="D1232" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1233" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B1233" t="s">
         <v>4032</v>
       </c>
-      <c r="B1233" t="s">
+      <c r="C1233" t="s">
         <v>4033</v>
       </c>
-      <c r="C1233" t="s">
+      <c r="D1233" t="s">
         <v>4034</v>
-      </c>
-      <c r="D1233" t="s">
-        <v>4035</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1234" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B1234" t="s">
         <v>4036</v>
       </c>
-      <c r="B1234" t="s">
+      <c r="C1234" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D1234" t="s">
         <v>4037</v>
-      </c>
-      <c r="C1234" t="s">
-        <v>4034</v>
-      </c>
-      <c r="D1234" t="s">
-        <v>4038</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1235" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B1235" t="s">
         <v>4039</v>
       </c>
-      <c r="B1235" t="s">
+      <c r="C1235" t="s">
         <v>4040</v>
       </c>
-      <c r="C1235" t="s">
+      <c r="D1235" t="s">
         <v>4041</v>
-      </c>
-      <c r="D1235" t="s">
-        <v>4042</v>
       </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1236" s="1" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="B1236" t="s">
         <v>1360</v>
       </c>
       <c r="C1236" t="s">
+        <v>4043</v>
+      </c>
+      <c r="D1236" t="s">
         <v>4044</v>
-      </c>
-      <c r="D1236" t="s">
-        <v>4045</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1237" s="1" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1237" t="s">
         <v>4046</v>
       </c>
-      <c r="B1237" t="s">
-        <v>3036</v>
-      </c>
-      <c r="C1237" t="s">
+      <c r="D1237" t="s">
         <v>4047</v>
-      </c>
-      <c r="D1237" t="s">
-        <v>4048</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1238" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D1238" t="s">
         <v>4049</v>
-      </c>
-      <c r="B1238" t="s">
-        <v>3335</v>
-      </c>
-      <c r="C1238" t="s">
-        <v>4047</v>
-      </c>
-      <c r="D1238" t="s">
-        <v>4050</v>
       </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1239" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B1239" t="s">
         <v>4051</v>
       </c>
-      <c r="B1239" t="s">
+      <c r="C1239" t="s">
         <v>4052</v>
       </c>
-      <c r="C1239" t="s">
+      <c r="D1239" t="s">
         <v>4053</v>
-      </c>
-      <c r="D1239" t="s">
-        <v>4054</v>
       </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1240" s="1" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B1240" t="s">
         <v>1016</v>
       </c>
       <c r="C1240" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D1240" t="s">
         <v>4056</v>
-      </c>
-      <c r="D1240" t="s">
-        <v>4057</v>
       </c>
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1241" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B1241" t="s">
         <v>4058</v>
       </c>
-      <c r="B1241" t="s">
+      <c r="C1241" t="s">
         <v>4059</v>
       </c>
-      <c r="C1241" t="s">
-        <v>4060</v>
-      </c>
       <c r="D1241" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1242" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B1242" t="s">
         <v>4061</v>
       </c>
-      <c r="B1242" t="s">
+      <c r="C1242" t="s">
         <v>4062</v>
       </c>
-      <c r="C1242" t="s">
+      <c r="D1242" t="s">
         <v>4063</v>
-      </c>
-      <c r="D1242" t="s">
-        <v>4064</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1243" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B1243" t="s">
         <v>4065</v>
       </c>
-      <c r="B1243" t="s">
+      <c r="C1243" t="s">
         <v>4066</v>
       </c>
-      <c r="C1243" t="s">
-        <v>4067</v>
-      </c>
       <c r="D1243" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1244" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1244" t="s">
         <v>4068</v>
       </c>
-      <c r="B1244" t="s">
-        <v>3697</v>
-      </c>
-      <c r="C1244" t="s">
-        <v>4069</v>
-      </c>
       <c r="D1244" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1245" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1245" t="s">
         <v>4070</v>
       </c>
-      <c r="B1245" t="s">
+      <c r="C1245" t="s">
         <v>4071</v>
       </c>
-      <c r="C1245" t="s">
+      <c r="D1245" t="s">
         <v>4072</v>
-      </c>
-      <c r="D1245" t="s">
-        <v>4073</v>
       </c>
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1246" s="1" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="B1246" t="s">
         <v>700</v>
       </c>
       <c r="C1246" t="s">
+        <v>4074</v>
+      </c>
+      <c r="D1246" t="s">
         <v>4075</v>
-      </c>
-      <c r="D1246" t="s">
-        <v>4076</v>
       </c>
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1247" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B1247" t="s">
         <v>4077</v>
       </c>
-      <c r="B1247" t="s">
+      <c r="C1247" t="s">
         <v>4078</v>
       </c>
-      <c r="C1247" t="s">
+      <c r="D1247" t="s">
         <v>4079</v>
-      </c>
-      <c r="D1247" t="s">
-        <v>4080</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1248" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B1248" t="s">
         <v>4081</v>
       </c>
-      <c r="B1248" t="s">
+      <c r="C1248" t="s">
         <v>4082</v>
       </c>
-      <c r="C1248" t="s">
+      <c r="D1248" t="s">
         <v>4083</v>
-      </c>
-      <c r="D1248" t="s">
-        <v>4084</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1249" s="1" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B1249" t="s">
         <v>1085</v>
       </c>
       <c r="C1249" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D1249" t="s">
         <v>4086</v>
-      </c>
-      <c r="D1249" t="s">
-        <v>4087</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1250" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B1250" t="s">
         <v>4088</v>
       </c>
-      <c r="B1250" t="s">
+      <c r="C1250" t="s">
         <v>4089</v>
       </c>
-      <c r="C1250" t="s">
+      <c r="D1250" t="s">
         <v>4090</v>
-      </c>
-      <c r="D1250" t="s">
-        <v>4091</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1251" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B1251" t="s">
         <v>4092</v>
       </c>
-      <c r="B1251" t="s">
+      <c r="C1251" t="s">
         <v>4093</v>
       </c>
-      <c r="C1251" t="s">
-        <v>4094</v>
-      </c>
       <c r="D1251" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1252" s="1" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B1252" t="s">
         <v>4095</v>
       </c>
-      <c r="B1252" t="s">
+      <c r="C1252" t="s">
         <v>4096</v>
       </c>
-      <c r="C1252" t="s">
-        <v>4097</v>
-      </c>
       <c r="D1252" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1253" s="1" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B1253" t="s">
         <v>4098</v>
       </c>
-      <c r="B1253" t="s">
-        <v>4099</v>
-      </c>
       <c r="C1253" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="D1253" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1254" s="1" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B1254" t="s">
         <v>4100</v>
       </c>
-      <c r="B1254" t="s">
+      <c r="C1254" t="s">
         <v>4101</v>
       </c>
-      <c r="C1254" t="s">
+      <c r="D1254" t="s">
         <v>4102</v>
-      </c>
-      <c r="D1254" t="s">
-        <v>4103</v>
       </c>
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1255" s="1" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="B1255" t="s">
         <v>217</v>
       </c>
       <c r="C1255" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="D1255" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1256" s="1" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B1256" t="s">
         <v>4106</v>
       </c>
-      <c r="B1256" t="s">
+      <c r="C1256" t="s">
         <v>4107</v>
       </c>
-      <c r="C1256" t="s">
+      <c r="D1256" t="s">
         <v>4108</v>
-      </c>
-      <c r="D1256" t="s">
-        <v>4109</v>
       </c>
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1257" s="1" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B1257" t="s">
         <v>4110</v>
       </c>
-      <c r="B1257" t="s">
+      <c r="C1257" t="s">
         <v>4111</v>
       </c>
-      <c r="C1257" t="s">
+      <c r="D1257" t="s">
         <v>4112</v>
-      </c>
-      <c r="D1257" t="s">
-        <v>4113</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1258" s="1" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="B1258" t="s">
         <v>252</v>
       </c>
       <c r="C1258" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="D1258" t="s">
         <v>252</v>
@@ -31397,209 +31397,209 @@
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1259" s="1" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B1259" t="s">
         <v>4116</v>
       </c>
-      <c r="B1259" t="s">
+      <c r="C1259" t="s">
         <v>4117</v>
       </c>
-      <c r="C1259" t="s">
+      <c r="D1259" t="s">
         <v>4118</v>
-      </c>
-      <c r="D1259" t="s">
-        <v>4119</v>
       </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1260" s="1" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B1260" t="s">
         <v>4120</v>
       </c>
-      <c r="B1260" t="s">
+      <c r="C1260" t="s">
         <v>4121</v>
       </c>
-      <c r="C1260" t="s">
-        <v>4122</v>
-      </c>
       <c r="D1260" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1261" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C1261" t="s">
         <v>4123</v>
       </c>
-      <c r="B1261" t="s">
-        <v>4062</v>
-      </c>
-      <c r="C1261" t="s">
-        <v>4124</v>
-      </c>
       <c r="D1261" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1262" s="1" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B1262" t="s">
         <v>4125</v>
       </c>
-      <c r="B1262" t="s">
+      <c r="C1262" t="s">
         <v>4126</v>
       </c>
-      <c r="C1262" t="s">
+      <c r="D1262" t="s">
         <v>4127</v>
-      </c>
-      <c r="D1262" t="s">
-        <v>4128</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1263" s="1" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B1263" t="s">
         <v>4129</v>
       </c>
-      <c r="B1263" t="s">
+      <c r="C1263" t="s">
+        <v>4126</v>
+      </c>
+      <c r="D1263" t="s">
         <v>4130</v>
-      </c>
-      <c r="C1263" t="s">
-        <v>4127</v>
-      </c>
-      <c r="D1263" t="s">
-        <v>4131</v>
       </c>
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1264" s="1" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C1264" t="s">
         <v>4132</v>
       </c>
-      <c r="B1264" t="s">
-        <v>4014</v>
-      </c>
-      <c r="C1264" t="s">
+      <c r="D1264" t="s">
         <v>4133</v>
-      </c>
-      <c r="D1264" t="s">
-        <v>4134</v>
       </c>
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1265" s="1" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B1265" t="s">
         <v>4135</v>
       </c>
-      <c r="B1265" t="s">
+      <c r="C1265" t="s">
         <v>4136</v>
       </c>
-      <c r="C1265" t="s">
+      <c r="D1265" t="s">
         <v>4137</v>
-      </c>
-      <c r="D1265" t="s">
-        <v>4138</v>
       </c>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1266" s="1" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B1266" t="s">
         <v>4139</v>
       </c>
-      <c r="B1266" t="s">
+      <c r="C1266" t="s">
+        <v>4136</v>
+      </c>
+      <c r="D1266" t="s">
         <v>4140</v>
-      </c>
-      <c r="C1266" t="s">
-        <v>4137</v>
-      </c>
-      <c r="D1266" t="s">
-        <v>4141</v>
       </c>
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1267" s="1" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1267" t="s">
         <v>4142</v>
       </c>
-      <c r="B1267" t="s">
-        <v>3266</v>
-      </c>
-      <c r="C1267" t="s">
+      <c r="D1267" t="s">
         <v>4143</v>
-      </c>
-      <c r="D1267" t="s">
-        <v>4144</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1268" s="1" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B1268" t="s">
         <v>4145</v>
       </c>
-      <c r="B1268" t="s">
+      <c r="C1268" t="s">
         <v>4146</v>
       </c>
-      <c r="C1268" t="s">
+      <c r="D1268" t="s">
         <v>4147</v>
-      </c>
-      <c r="D1268" t="s">
-        <v>4148</v>
       </c>
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1269" s="1" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B1269" t="s">
         <v>4149</v>
       </c>
-      <c r="B1269" t="s">
+      <c r="C1269" t="s">
         <v>4150</v>
       </c>
-      <c r="C1269" t="s">
+      <c r="D1269" t="s">
         <v>4151</v>
-      </c>
-      <c r="D1269" t="s">
-        <v>4152</v>
       </c>
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1270" s="1" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="B1270" t="s">
         <v>1016</v>
       </c>
       <c r="C1270" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D1270" t="s">
         <v>4154</v>
-      </c>
-      <c r="D1270" t="s">
-        <v>4155</v>
       </c>
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1271" s="1" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="B1271" t="s">
         <v>293</v>
       </c>
       <c r="C1271" t="s">
+        <v>4156</v>
+      </c>
+      <c r="D1271" t="s">
         <v>4157</v>
-      </c>
-      <c r="D1271" t="s">
-        <v>4158</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1272" s="1" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B1272" t="s">
         <v>4159</v>
       </c>
-      <c r="B1272" t="s">
+      <c r="C1272" t="s">
         <v>4160</v>
       </c>
-      <c r="C1272" t="s">
+      <c r="D1272" t="s">
         <v>4161</v>
-      </c>
-      <c r="D1272" t="s">
-        <v>4162</v>
       </c>
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1273" s="1" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="B1273" t="s">
         <v>2654</v>
       </c>
       <c r="C1273" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="D1273" t="s">
         <v>2654</v>
@@ -31607,41 +31607,41 @@
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1274" s="1" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="B1274" t="s">
         <v>433</v>
       </c>
       <c r="C1274" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D1274" t="s">
         <v>4166</v>
-      </c>
-      <c r="D1274" t="s">
-        <v>4167</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1275" s="1" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B1275" t="s">
         <v>4168</v>
       </c>
-      <c r="B1275" t="s">
+      <c r="C1275" t="s">
         <v>4169</v>
       </c>
-      <c r="C1275" t="s">
-        <v>4170</v>
-      </c>
       <c r="D1275" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1276" s="1" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="B1276" t="s">
         <v>1023</v>
       </c>
       <c r="C1276" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="D1276" t="s">
         <v>1023</v>
@@ -31649,97 +31649,97 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1277" s="1" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B1277" t="s">
         <v>4173</v>
       </c>
-      <c r="B1277" t="s">
+      <c r="C1277" t="s">
         <v>4174</v>
       </c>
-      <c r="C1277" t="s">
-        <v>4175</v>
-      </c>
       <c r="D1277" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1278" s="1" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B1278" t="s">
         <v>4176</v>
       </c>
-      <c r="B1278" t="s">
+      <c r="C1278" t="s">
         <v>4177</v>
       </c>
-      <c r="C1278" t="s">
+      <c r="D1278" t="s">
         <v>4178</v>
-      </c>
-      <c r="D1278" t="s">
-        <v>4179</v>
       </c>
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1279" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B1279" t="s">
         <v>4180</v>
       </c>
-      <c r="B1279" t="s">
+      <c r="C1279" t="s">
         <v>4181</v>
       </c>
-      <c r="C1279" t="s">
-        <v>4182</v>
-      </c>
       <c r="D1279" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1280" s="1" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B1280" t="s">
         <v>4183</v>
       </c>
-      <c r="B1280" t="s">
+      <c r="C1280" t="s">
         <v>4184</v>
       </c>
-      <c r="C1280" t="s">
+      <c r="D1280" t="s">
         <v>4185</v>
-      </c>
-      <c r="D1280" t="s">
-        <v>4186</v>
       </c>
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1281" s="1" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="B1281" t="s">
         <v>918</v>
       </c>
       <c r="C1281" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D1281" t="s">
         <v>4188</v>
-      </c>
-      <c r="D1281" t="s">
-        <v>4189</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1282" s="1" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1282" t="s">
         <v>4190</v>
       </c>
-      <c r="B1282" t="s">
-        <v>3388</v>
-      </c>
-      <c r="C1282" t="s">
-        <v>4191</v>
-      </c>
       <c r="D1282" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1283" s="1" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="B1283" t="s">
         <v>1472</v>
       </c>
       <c r="C1283" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="D1283" t="s">
         <v>1472</v>
@@ -31747,55 +31747,55 @@
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1284" s="1" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B1284" t="s">
         <v>4194</v>
       </c>
-      <c r="B1284" t="s">
+      <c r="C1284" t="s">
         <v>4195</v>
       </c>
-      <c r="C1284" t="s">
-        <v>4196</v>
-      </c>
       <c r="D1284" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1285" s="1" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B1285" t="s">
         <v>4197</v>
       </c>
-      <c r="B1285" t="s">
+      <c r="C1285" t="s">
         <v>4198</v>
       </c>
-      <c r="C1285" t="s">
+      <c r="D1285" t="s">
         <v>4199</v>
-      </c>
-      <c r="D1285" t="s">
-        <v>4200</v>
       </c>
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1286" s="1" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B1286" t="s">
         <v>4201</v>
       </c>
-      <c r="B1286" t="s">
+      <c r="C1286" t="s">
         <v>4202</v>
       </c>
-      <c r="C1286" t="s">
+      <c r="D1286" t="s">
         <v>4203</v>
-      </c>
-      <c r="D1286" t="s">
-        <v>4204</v>
       </c>
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1287" s="1" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="B1287" t="s">
         <v>2203</v>
       </c>
       <c r="C1287" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="D1287" t="s">
         <v>2203</v>
@@ -31803,97 +31803,97 @@
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1288" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B1288" t="s">
         <v>4207</v>
       </c>
-      <c r="B1288" t="s">
+      <c r="C1288" t="s">
         <v>4208</v>
       </c>
-      <c r="C1288" t="s">
+      <c r="D1288" t="s">
         <v>4209</v>
-      </c>
-      <c r="D1288" t="s">
-        <v>4210</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1289" s="1" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B1289" t="s">
         <v>4211</v>
       </c>
-      <c r="B1289" t="s">
+      <c r="C1289" t="s">
         <v>4212</v>
       </c>
-      <c r="C1289" t="s">
+      <c r="D1289" t="s">
         <v>4213</v>
-      </c>
-      <c r="D1289" t="s">
-        <v>4214</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1290" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B1290" t="s">
         <v>4215</v>
       </c>
-      <c r="B1290" t="s">
+      <c r="C1290" t="s">
         <v>4216</v>
       </c>
-      <c r="C1290" t="s">
+      <c r="D1290" t="s">
         <v>4217</v>
-      </c>
-      <c r="D1290" t="s">
-        <v>4218</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1291" s="1" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="B1291" t="s">
         <v>220</v>
       </c>
       <c r="C1291" t="s">
+        <v>4219</v>
+      </c>
+      <c r="D1291" t="s">
         <v>4220</v>
-      </c>
-      <c r="D1291" t="s">
-        <v>4221</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1292" s="1" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B1292" t="s">
         <v>4222</v>
       </c>
-      <c r="B1292" t="s">
+      <c r="C1292" t="s">
         <v>4223</v>
       </c>
-      <c r="C1292" t="s">
+      <c r="D1292" t="s">
         <v>4224</v>
-      </c>
-      <c r="D1292" t="s">
-        <v>4225</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1293" s="1" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B1293" t="s">
         <v>4226</v>
       </c>
-      <c r="B1293" t="s">
+      <c r="C1293" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D1293" t="s">
         <v>4227</v>
-      </c>
-      <c r="C1293" t="s">
-        <v>4224</v>
-      </c>
-      <c r="D1293" t="s">
-        <v>4228</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1294" s="1" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B1294" t="s">
         <v>325</v>
       </c>
       <c r="C1294" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="D1294" t="s">
         <v>325</v>
@@ -31901,139 +31901,139 @@
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1295" s="1" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B1295" t="s">
         <v>4231</v>
       </c>
-      <c r="B1295" t="s">
+      <c r="C1295" t="s">
         <v>4232</v>
       </c>
-      <c r="C1295" t="s">
+      <c r="D1295" t="s">
         <v>4233</v>
-      </c>
-      <c r="D1295" t="s">
-        <v>4234</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1296" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B1296" t="s">
         <v>4235</v>
       </c>
-      <c r="B1296" t="s">
+      <c r="C1296" t="s">
         <v>4236</v>
       </c>
-      <c r="C1296" t="s">
-        <v>4237</v>
-      </c>
       <c r="D1296" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1297" s="1" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C1297" t="s">
         <v>4238</v>
       </c>
-      <c r="B1297" t="s">
-        <v>4101</v>
-      </c>
-      <c r="C1297" t="s">
+      <c r="D1297" t="s">
         <v>4239</v>
-      </c>
-      <c r="D1297" t="s">
-        <v>4240</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1298" s="1" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="B1298" t="s">
         <v>325</v>
       </c>
       <c r="C1298" t="s">
+        <v>4241</v>
+      </c>
+      <c r="D1298" t="s">
         <v>4242</v>
-      </c>
-      <c r="D1298" t="s">
-        <v>4243</v>
       </c>
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1299" s="1" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B1299" t="s">
         <v>4244</v>
       </c>
-      <c r="B1299" t="s">
+      <c r="C1299" t="s">
         <v>4245</v>
       </c>
-      <c r="C1299" t="s">
+      <c r="D1299" t="s">
         <v>4246</v>
-      </c>
-      <c r="D1299" t="s">
-        <v>4247</v>
       </c>
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1300" s="1" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B1300" t="s">
         <v>4248</v>
       </c>
-      <c r="B1300" t="s">
+      <c r="C1300" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D1300" t="s">
         <v>4249</v>
-      </c>
-      <c r="C1300" t="s">
-        <v>4246</v>
-      </c>
-      <c r="D1300" t="s">
-        <v>4250</v>
       </c>
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1301" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B1301" t="s">
         <v>4251</v>
       </c>
-      <c r="B1301" t="s">
+      <c r="C1301" t="s">
         <v>4252</v>
       </c>
-      <c r="C1301" t="s">
+      <c r="D1301" t="s">
         <v>4253</v>
-      </c>
-      <c r="D1301" t="s">
-        <v>4254</v>
       </c>
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1302" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B1302" t="s">
         <v>4255</v>
       </c>
-      <c r="B1302" t="s">
+      <c r="C1302" t="s">
         <v>4256</v>
       </c>
-      <c r="C1302" t="s">
+      <c r="D1302" t="s">
         <v>4257</v>
-      </c>
-      <c r="D1302" t="s">
-        <v>4258</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1303" s="1" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="B1303" t="s">
         <v>1374</v>
       </c>
       <c r="C1303" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="D1303" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1304" s="1" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="B1304" t="s">
         <v>1694</v>
       </c>
       <c r="C1304" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="D1304" t="s">
         <v>1694</v>
@@ -32041,27 +32041,27 @@
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1305" s="1" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="B1305" t="s">
         <v>1016</v>
       </c>
       <c r="C1305" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1305" t="s">
         <v>4264</v>
-      </c>
-      <c r="D1305" t="s">
-        <v>4265</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1306" s="1" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="B1306" t="s">
         <v>2544</v>
       </c>
       <c r="C1306" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="D1306" t="s">
         <v>2544</v>
@@ -32069,97 +32069,97 @@
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1307" s="1" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="B1307" t="s">
         <v>163</v>
       </c>
       <c r="C1307" t="s">
+        <v>4268</v>
+      </c>
+      <c r="D1307" t="s">
         <v>4269</v>
-      </c>
-      <c r="D1307" t="s">
-        <v>4270</v>
       </c>
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1308" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B1308" t="s">
         <v>4271</v>
       </c>
-      <c r="B1308" t="s">
+      <c r="C1308" t="s">
         <v>4272</v>
       </c>
-      <c r="C1308" t="s">
+      <c r="D1308" t="s">
         <v>4273</v>
-      </c>
-      <c r="D1308" t="s">
-        <v>4274</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1309" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B1309" t="s">
         <v>4275</v>
       </c>
-      <c r="B1309" t="s">
+      <c r="C1309" t="s">
         <v>4276</v>
       </c>
-      <c r="C1309" t="s">
+      <c r="D1309" t="s">
         <v>4277</v>
-      </c>
-      <c r="D1309" t="s">
-        <v>4278</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1310" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B1310" t="s">
         <v>4279</v>
       </c>
-      <c r="B1310" t="s">
+      <c r="C1310" t="s">
         <v>4280</v>
       </c>
-      <c r="C1310" t="s">
-        <v>4281</v>
-      </c>
       <c r="D1310" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1311" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1311" t="s">
         <v>4282</v>
       </c>
-      <c r="B1311" t="s">
-        <v>3189</v>
-      </c>
-      <c r="C1311" t="s">
-        <v>4283</v>
-      </c>
       <c r="D1311" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1312" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B1312" t="s">
         <v>4284</v>
       </c>
-      <c r="B1312" t="s">
+      <c r="C1312" t="s">
         <v>4285</v>
       </c>
-      <c r="C1312" t="s">
+      <c r="D1312" t="s">
         <v>4286</v>
-      </c>
-      <c r="D1312" t="s">
-        <v>4287</v>
       </c>
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1313" s="1" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="B1313" t="s">
         <v>969</v>
       </c>
       <c r="C1313" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="D1313" t="s">
         <v>969</v>
@@ -32167,55 +32167,55 @@
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1314" s="1" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="B1314" t="s">
         <v>1581</v>
       </c>
       <c r="C1314" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D1314" t="s">
         <v>4291</v>
-      </c>
-      <c r="D1314" t="s">
-        <v>4292</v>
       </c>
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1315" s="1" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="B1315" t="s">
         <v>2705</v>
       </c>
       <c r="C1315" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D1315" t="s">
         <v>4294</v>
-      </c>
-      <c r="D1315" t="s">
-        <v>4295</v>
       </c>
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1316" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B1316" t="s">
         <v>4296</v>
       </c>
-      <c r="B1316" t="s">
+      <c r="C1316" t="s">
         <v>4297</v>
       </c>
-      <c r="C1316" t="s">
-        <v>4298</v>
-      </c>
       <c r="D1316" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1317" s="1" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="B1317" t="s">
         <v>1650</v>
       </c>
       <c r="C1317" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="D1317" t="s">
         <v>1650</v>
@@ -32223,41 +32223,41 @@
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1318" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B1318" t="s">
         <v>4301</v>
       </c>
-      <c r="B1318" t="s">
+      <c r="C1318" t="s">
         <v>4302</v>
       </c>
-      <c r="C1318" t="s">
-        <v>4303</v>
-      </c>
       <c r="D1318" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1319" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C1319" t="s">
         <v>4304</v>
       </c>
-      <c r="B1319" t="s">
-        <v>2907</v>
-      </c>
-      <c r="C1319" t="s">
+      <c r="D1319" t="s">
         <v>4305</v>
-      </c>
-      <c r="D1319" t="s">
-        <v>4306</v>
       </c>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1320" s="1" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="B1320" t="s">
         <v>584</v>
       </c>
       <c r="C1320" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="D1320" t="s">
         <v>584</v>
@@ -32265,167 +32265,167 @@
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1321" s="1" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B1321" t="s">
         <v>4309</v>
       </c>
-      <c r="B1321" t="s">
+      <c r="C1321" t="s">
         <v>4310</v>
       </c>
-      <c r="C1321" t="s">
-        <v>4311</v>
-      </c>
       <c r="D1321" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1322" s="1" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B1322" t="s">
         <v>4312</v>
       </c>
-      <c r="B1322" t="s">
+      <c r="C1322" t="s">
         <v>4313</v>
       </c>
-      <c r="C1322" t="s">
+      <c r="D1322" t="s">
         <v>4314</v>
-      </c>
-      <c r="D1322" t="s">
-        <v>4315</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1323" s="1" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B1323" t="s">
         <v>4316</v>
       </c>
-      <c r="B1323" t="s">
+      <c r="C1323" t="s">
         <v>4317</v>
       </c>
-      <c r="C1323" t="s">
-        <v>4318</v>
-      </c>
       <c r="D1323" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1324" s="1" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B1324" t="s">
         <v>4319</v>
       </c>
-      <c r="B1324" t="s">
+      <c r="C1324" t="s">
         <v>4320</v>
       </c>
-      <c r="C1324" t="s">
+      <c r="D1324" t="s">
         <v>4321</v>
-      </c>
-      <c r="D1324" t="s">
-        <v>4322</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1325" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B1325" t="s">
         <v>4323</v>
       </c>
-      <c r="B1325" t="s">
+      <c r="C1325" t="s">
         <v>4324</v>
       </c>
-      <c r="C1325" t="s">
+      <c r="D1325" t="s">
         <v>4325</v>
-      </c>
-      <c r="D1325" t="s">
-        <v>4326</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1326" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B1326" t="s">
         <v>4327</v>
       </c>
-      <c r="B1326" t="s">
+      <c r="C1326" t="s">
         <v>4328</v>
       </c>
-      <c r="C1326" t="s">
+      <c r="D1326" t="s">
         <v>4329</v>
-      </c>
-      <c r="D1326" t="s">
-        <v>4330</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1327" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B1327" t="s">
         <v>4331</v>
       </c>
-      <c r="B1327" t="s">
+      <c r="C1327" t="s">
         <v>4332</v>
       </c>
-      <c r="C1327" t="s">
+      <c r="D1327" t="s">
         <v>4333</v>
-      </c>
-      <c r="D1327" t="s">
-        <v>4334</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1328" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B1328" t="s">
         <v>4335</v>
       </c>
-      <c r="B1328" t="s">
+      <c r="C1328" t="s">
         <v>4336</v>
       </c>
-      <c r="C1328" t="s">
+      <c r="D1328" t="s">
         <v>4337</v>
-      </c>
-      <c r="D1328" t="s">
-        <v>4338</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1329" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B1329" t="s">
         <v>4339</v>
       </c>
-      <c r="B1329" t="s">
+      <c r="C1329" t="s">
         <v>4340</v>
       </c>
-      <c r="C1329" t="s">
-        <v>4341</v>
-      </c>
       <c r="D1329" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1330" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B1330" t="s">
         <v>4342</v>
       </c>
-      <c r="B1330" t="s">
+      <c r="C1330" t="s">
         <v>4343</v>
       </c>
-      <c r="C1330" t="s">
+      <c r="D1330" t="s">
         <v>4344</v>
-      </c>
-      <c r="D1330" t="s">
-        <v>4345</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1331" s="1" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="B1331" t="s">
         <v>2217</v>
       </c>
       <c r="C1331" t="s">
+        <v>4346</v>
+      </c>
+      <c r="D1331" t="s">
         <v>4347</v>
-      </c>
-      <c r="D1331" t="s">
-        <v>4348</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1332" s="1" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="B1332" t="s">
         <v>1701</v>
       </c>
       <c r="C1332" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="D1332" t="s">
         <v>1701</v>
@@ -32433,251 +32433,251 @@
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1333" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B1333" t="s">
         <v>4351</v>
       </c>
-      <c r="B1333" t="s">
+      <c r="C1333" t="s">
         <v>4352</v>
       </c>
-      <c r="C1333" t="s">
+      <c r="D1333" t="s">
         <v>4353</v>
-      </c>
-      <c r="D1333" t="s">
-        <v>4354</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1334" s="1" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="B1334" t="s">
         <v>693</v>
       </c>
       <c r="C1334" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D1334" t="s">
         <v>4356</v>
-      </c>
-      <c r="D1334" t="s">
-        <v>4357</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1335" s="1" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B1335" t="s">
         <v>4358</v>
       </c>
-      <c r="B1335" t="s">
+      <c r="C1335" t="s">
         <v>4359</v>
       </c>
-      <c r="C1335" t="s">
+      <c r="D1335" t="s">
         <v>4360</v>
-      </c>
-      <c r="D1335" t="s">
-        <v>4361</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1336" s="1" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B1336" t="s">
         <v>4362</v>
       </c>
-      <c r="B1336" t="s">
+      <c r="C1336" t="s">
         <v>4363</v>
       </c>
-      <c r="C1336" t="s">
+      <c r="D1336" t="s">
         <v>4364</v>
-      </c>
-      <c r="D1336" t="s">
-        <v>4365</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1337" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B1337" t="s">
         <v>4366</v>
       </c>
-      <c r="B1337" t="s">
+      <c r="C1337" t="s">
         <v>4367</v>
       </c>
-      <c r="C1337" t="s">
-        <v>4368</v>
-      </c>
       <c r="D1337" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1338" s="1" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B1338" t="s">
         <v>4369</v>
       </c>
-      <c r="B1338" t="s">
+      <c r="C1338" t="s">
         <v>4370</v>
       </c>
-      <c r="C1338" t="s">
+      <c r="D1338" t="s">
         <v>4371</v>
-      </c>
-      <c r="D1338" t="s">
-        <v>4372</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1339" s="1" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1339" t="s">
         <v>4373</v>
       </c>
-      <c r="B1339" t="s">
-        <v>3189</v>
-      </c>
-      <c r="C1339" t="s">
-        <v>4374</v>
-      </c>
       <c r="D1339" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1340" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B1340" t="s">
         <v>4375</v>
       </c>
-      <c r="B1340" t="s">
+      <c r="C1340" t="s">
         <v>4376</v>
       </c>
-      <c r="C1340" t="s">
+      <c r="D1340" t="s">
         <v>4377</v>
-      </c>
-      <c r="D1340" t="s">
-        <v>4378</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1341" s="1" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B1341" t="s">
         <v>4379</v>
       </c>
-      <c r="B1341" t="s">
+      <c r="C1341" t="s">
         <v>4380</v>
       </c>
-      <c r="C1341" t="s">
-        <v>4381</v>
-      </c>
       <c r="D1341" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1342" s="1" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B1342" t="s">
         <v>4382</v>
       </c>
-      <c r="B1342" t="s">
+      <c r="C1342" t="s">
         <v>4383</v>
       </c>
-      <c r="C1342" t="s">
+      <c r="D1342" t="s">
         <v>4384</v>
-      </c>
-      <c r="D1342" t="s">
-        <v>4385</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1343" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B1343" t="s">
         <v>4386</v>
       </c>
-      <c r="B1343" t="s">
+      <c r="C1343" t="s">
         <v>4387</v>
       </c>
-      <c r="C1343" t="s">
+      <c r="D1343" t="s">
         <v>4388</v>
-      </c>
-      <c r="D1343" t="s">
-        <v>4389</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1344" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B1344" t="s">
         <v>4390</v>
       </c>
-      <c r="B1344" t="s">
+      <c r="C1344" t="s">
         <v>4391</v>
       </c>
-      <c r="C1344" t="s">
-        <v>4392</v>
-      </c>
       <c r="D1344" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1345" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B1345" t="s">
         <v>4393</v>
       </c>
-      <c r="B1345" t="s">
+      <c r="C1345" t="s">
         <v>4394</v>
       </c>
-      <c r="C1345" t="s">
+      <c r="D1345" t="s">
         <v>4395</v>
-      </c>
-      <c r="D1345" t="s">
-        <v>4396</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1346" s="1" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B1346" t="s">
         <v>4397</v>
       </c>
-      <c r="B1346" t="s">
+      <c r="C1346" t="s">
         <v>4398</v>
       </c>
-      <c r="C1346" t="s">
+      <c r="D1346" t="s">
         <v>4399</v>
-      </c>
-      <c r="D1346" t="s">
-        <v>4400</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1347" s="1" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B1347" t="s">
         <v>4401</v>
       </c>
-      <c r="B1347" t="s">
+      <c r="C1347" t="s">
         <v>4402</v>
       </c>
-      <c r="C1347" t="s">
+      <c r="D1347" t="s">
         <v>4403</v>
-      </c>
-      <c r="D1347" t="s">
-        <v>4404</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1348" s="1" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B1348" t="s">
         <v>4405</v>
       </c>
-      <c r="B1348" t="s">
+      <c r="C1348" t="s">
         <v>4406</v>
       </c>
-      <c r="C1348" t="s">
+      <c r="D1348" t="s">
         <v>4407</v>
-      </c>
-      <c r="D1348" t="s">
-        <v>4408</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1349" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B1349" t="s">
         <v>4409</v>
       </c>
-      <c r="B1349" t="s">
+      <c r="C1349" t="s">
         <v>4410</v>
       </c>
-      <c r="C1349" t="s">
-        <v>4411</v>
-      </c>
       <c r="D1349" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1350" s="1" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="B1350" t="s">
         <v>1624</v>
       </c>
       <c r="C1350" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="D1350" t="s">
         <v>1624</v>
@@ -32685,27 +32685,27 @@
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1351" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B1351" t="s">
         <v>4414</v>
       </c>
-      <c r="B1351" t="s">
+      <c r="C1351" t="s">
         <v>4415</v>
       </c>
-      <c r="C1351" t="s">
-        <v>4416</v>
-      </c>
       <c r="D1351" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1352" s="1" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="B1352" t="s">
         <v>521</v>
       </c>
       <c r="C1352" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="D1352" t="s">
         <v>521</v>
@@ -32713,55 +32713,55 @@
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1353" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B1353" t="s">
         <v>4419</v>
       </c>
-      <c r="B1353" t="s">
+      <c r="C1353" t="s">
         <v>4420</v>
       </c>
-      <c r="C1353" t="s">
-        <v>4421</v>
-      </c>
       <c r="D1353" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1354" s="1" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="B1354" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="C1354" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="D1354" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1355" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B1355" t="s">
         <v>4423</v>
       </c>
-      <c r="B1355" t="s">
+      <c r="C1355" t="s">
         <v>4424</v>
       </c>
-      <c r="C1355" t="s">
+      <c r="D1355" t="s">
         <v>4425</v>
-      </c>
-      <c r="D1355" t="s">
-        <v>4426</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1356" s="1" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="B1356" t="s">
         <v>361</v>
       </c>
       <c r="C1356" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="D1356" t="s">
         <v>363</v>
@@ -32769,83 +32769,83 @@
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1357" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B1357" t="s">
         <v>4429</v>
       </c>
-      <c r="B1357" t="s">
+      <c r="C1357" t="s">
         <v>4430</v>
       </c>
-      <c r="C1357" t="s">
-        <v>4431</v>
-      </c>
       <c r="D1357" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1358" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B1358" t="s">
         <v>4432</v>
       </c>
-      <c r="B1358" t="s">
+      <c r="C1358" t="s">
         <v>4433</v>
       </c>
-      <c r="C1358" t="s">
-        <v>4434</v>
-      </c>
       <c r="D1358" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1359" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B1359" t="s">
         <v>4435</v>
       </c>
-      <c r="B1359" t="s">
+      <c r="C1359" t="s">
         <v>4436</v>
       </c>
-      <c r="C1359" t="s">
-        <v>4437</v>
-      </c>
       <c r="D1359" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1360" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B1360" t="s">
         <v>4438</v>
       </c>
-      <c r="B1360" t="s">
+      <c r="C1360" t="s">
         <v>4439</v>
       </c>
-      <c r="C1360" t="s">
-        <v>4440</v>
-      </c>
       <c r="D1360" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1361" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B1361" t="s">
         <v>4441</v>
       </c>
-      <c r="B1361" t="s">
+      <c r="C1361" t="s">
         <v>4442</v>
       </c>
-      <c r="C1361" t="s">
+      <c r="D1361" t="s">
         <v>4443</v>
-      </c>
-      <c r="D1361" t="s">
-        <v>4444</v>
       </c>
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1362" s="1" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="B1362" t="s">
         <v>1939</v>
       </c>
       <c r="C1362" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="D1362" t="s">
         <v>1939</v>
